--- a/input_files/Behavior_Immune_data/AMA 27 GI tissues media 072513.xlsx
+++ b/input_files/Behavior_Immune_data/AMA 27 GI tissues media 072513.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/NHP_MIA_Omics/input_files/Behavior_Immune_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD6B5F-4908-5F4C-8EA1-4CB95CA86D76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35460" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +39,23 @@
     <sheet name="VEGF" sheetId="18" r:id="rId24"/>
     <sheet name="Sheet2" sheetId="19" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
   <si>
     <t>G-CSF (18)</t>
   </si>
@@ -403,14 +420,71 @@
     <t>Jejunum</t>
   </si>
   <si>
-    <t>*22.71</t>
+    <t>Ileum</t>
+  </si>
+  <si>
+    <t>39813_Ileum</t>
+  </si>
+  <si>
+    <t>39827_Ileum</t>
+  </si>
+  <si>
+    <t>39988_Ileum</t>
+  </si>
+  <si>
+    <t>40318_Ileum</t>
+  </si>
+  <si>
+    <t>40360_Ileum</t>
+  </si>
+  <si>
+    <t>40476_Ileum</t>
+  </si>
+  <si>
+    <t>39673_Ileum</t>
+  </si>
+  <si>
+    <t>40212_Ileum</t>
+  </si>
+  <si>
+    <t>40302_Ileum</t>
+  </si>
+  <si>
+    <t>40390_Ileum</t>
+  </si>
+  <si>
+    <t>40395_Ileum</t>
+  </si>
+  <si>
+    <t>40479_Ileum</t>
+  </si>
+  <si>
+    <t>40355_Ileum</t>
+  </si>
+  <si>
+    <t>40440_Ileum</t>
+  </si>
+  <si>
+    <t>40473_Ileum</t>
+  </si>
+  <si>
+    <t>40478_Ileum</t>
+  </si>
+  <si>
+    <t>40295_Ileum</t>
+  </si>
+  <si>
+    <t>39689_Ileum</t>
+  </si>
+  <si>
+    <t>40482_Ileum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -681,6 +755,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,15 +773,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -751,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,9 +869,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,6 +921,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,23 +1114,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1094,7 +1216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39813</v>
       </c>
@@ -1113,49 +1235,49 @@
       <c r="F2">
         <v>9.2899999999999991</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="23">
         <v>0.9</v>
       </c>
       <c r="H2">
         <v>11.78</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="23">
         <v>0.77</v>
       </c>
       <c r="J2">
         <v>16.559999999999999</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="23">
         <v>1.05</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="23">
         <v>4.59</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="23">
         <v>0.78</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="23">
         <v>0.8</v>
       </c>
       <c r="O2">
         <v>6.77</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="23">
         <v>7.62</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="23">
         <v>5.98</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="23">
         <v>0.25</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="23">
         <v>0.65</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="23">
         <v>3.05</v>
       </c>
       <c r="V2">
@@ -1164,10 +1286,10 @@
       <c r="W2">
         <v>2.84</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="23">
         <v>1.04</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="Z2">
@@ -1176,11 +1298,11 @@
       <c r="AA2">
         <v>9.92</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39827</v>
       </c>
@@ -1262,11 +1384,11 @@
       <c r="AA3">
         <v>59.08</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="32">
         <v>153.04</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39988</v>
       </c>
@@ -1285,19 +1407,19 @@
       <c r="F4">
         <v>15.38</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="23">
         <v>2.06</v>
       </c>
       <c r="H4">
         <v>15.07</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="23">
         <v>1.78</v>
       </c>
       <c r="J4">
         <v>26.83</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="23">
         <v>0.72</v>
       </c>
       <c r="L4">
@@ -1306,7 +1428,7 @@
       <c r="M4">
         <v>3.54</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="23">
         <v>1.5</v>
       </c>
       <c r="O4">
@@ -1324,10 +1446,10 @@
       <c r="S4">
         <v>2.89</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="23">
         <v>1.6</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="23">
         <v>3.05</v>
       </c>
       <c r="V4">
@@ -1348,11 +1470,11 @@
       <c r="AA4">
         <v>21.28</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40318</v>
       </c>
@@ -1377,7 +1499,7 @@
       <c r="H5">
         <v>29.03</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="23">
         <v>2.21</v>
       </c>
       <c r="J5">
@@ -1407,13 +1529,13 @@
       <c r="R5">
         <v>22.94</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="23">
         <v>2.27</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="23">
         <v>2.54</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="23">
         <v>2.34</v>
       </c>
       <c r="V5">
@@ -1434,11 +1556,11 @@
       <c r="AA5">
         <v>23.14</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="32">
         <v>50.88</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40360</v>
       </c>
@@ -1469,7 +1591,7 @@
       <c r="J6">
         <v>80.67</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="23">
         <v>0.94</v>
       </c>
       <c r="L6">
@@ -1499,7 +1621,7 @@
       <c r="T6">
         <v>6.77</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="23">
         <v>4.16</v>
       </c>
       <c r="V6">
@@ -1520,11 +1642,11 @@
       <c r="AA6">
         <v>30.48</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40476</v>
       </c>
@@ -1540,77 +1662,77 @@
       <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="23">
         <v>1.05</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="23">
         <v>0.9</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>0.8</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="23">
         <v>0.6</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="23">
         <v>1.2</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <v>1.05</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="23">
         <v>1.55</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="23">
         <v>0.75</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="23">
         <v>0.8</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="23">
         <v>2.25</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="23">
         <v>2.9</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="23">
         <v>0.25</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="23">
         <v>0.65</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="23">
         <v>3.05</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="23">
         <v>1.55</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AA7" s="23">
         <v>2.96</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39673</v>
       </c>
@@ -1629,34 +1751,34 @@
       <c r="F8">
         <v>17.29</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="23">
         <v>0.9</v>
       </c>
       <c r="H8">
         <v>11.78</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="23">
         <v>0.92</v>
       </c>
       <c r="J8">
         <v>16.559999999999999</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="23">
         <v>1.05</v>
       </c>
       <c r="L8">
         <v>6.37</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="23">
         <v>1.7</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="23">
         <v>0.8</v>
       </c>
       <c r="O8">
         <v>6.28</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="23">
         <v>3.2</v>
       </c>
       <c r="Q8">
@@ -1665,22 +1787,22 @@
       <c r="R8">
         <v>13.21</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="23">
         <v>1.41</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="23">
         <v>1.07</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="23">
         <v>3.05</v>
       </c>
       <c r="V8">
         <v>13.96</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="23">
         <v>1.04</v>
       </c>
       <c r="Y8">
@@ -1692,11 +1814,11 @@
       <c r="AA8">
         <v>14.71</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40212</v>
       </c>
@@ -1712,10 +1834,10 @@
       <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <v>3.43</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="23">
         <v>1.76</v>
       </c>
       <c r="H9">
@@ -1724,52 +1846,52 @@
       <c r="I9">
         <v>2.63</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="23">
         <v>2.46</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="23">
         <v>1.05</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="23">
         <v>1.55</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <v>0.75</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="23">
         <v>0.8</v>
       </c>
       <c r="O9">
         <v>15.9</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="23">
         <v>4.91</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="23">
         <v>5.98</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="23">
         <v>0.25</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="23">
         <v>0.65</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="23">
         <v>3.05</v>
       </c>
       <c r="V9">
         <v>23.21</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y9" s="28">
+      <c r="Y9" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z9">
@@ -1778,11 +1900,11 @@
       <c r="AA9">
         <v>10.89</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40302</v>
       </c>
@@ -1813,7 +1935,7 @@
       <c r="J10">
         <v>84.02</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="23">
         <v>0.49</v>
       </c>
       <c r="L10">
@@ -1843,7 +1965,7 @@
       <c r="T10">
         <v>5.94</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="23">
         <v>8.73</v>
       </c>
       <c r="V10">
@@ -1864,11 +1986,11 @@
       <c r="AA10">
         <v>44.02</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="32">
         <v>62.38</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40390</v>
       </c>
@@ -1905,7 +2027,7 @@
       <c r="L11">
         <v>17.899999999999999</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="23">
         <v>1.41</v>
       </c>
       <c r="N11">
@@ -1923,13 +2045,13 @@
       <c r="R11">
         <v>10.94</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="23">
         <v>0.44</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="23">
         <v>1.78</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="23">
         <v>3.05</v>
       </c>
       <c r="V11">
@@ -1950,11 +2072,11 @@
       <c r="AA11">
         <v>17.54</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40395</v>
       </c>
@@ -2036,11 +2158,11 @@
       <c r="AA12">
         <v>60.84</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="32">
         <v>179.45</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1">
+    <row r="13" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40479</v>
       </c>
@@ -2101,7 +2223,7 @@
       <c r="T13" s="2">
         <v>5.33</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="24">
         <v>1.5</v>
       </c>
       <c r="V13" s="2">
@@ -2122,11 +2244,11 @@
       <c r="AA13" s="2">
         <v>26.82</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB13" s="33">
         <v>67.77</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40335</v>
       </c>
@@ -2208,11 +2330,11 @@
       <c r="AA14">
         <v>57.32</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="32">
         <v>101.31</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40440</v>
       </c>
@@ -2231,34 +2353,34 @@
       <c r="F15">
         <v>9.2899999999999991</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="23">
         <v>0.9</v>
       </c>
       <c r="H15">
         <v>16.149999999999999</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>0.63</v>
       </c>
       <c r="J15">
         <v>16.559999999999999</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="23">
         <v>1.05</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="23">
         <v>4.59</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="23">
         <v>0.75</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="O15">
         <v>11.38</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="23">
         <v>2.83</v>
       </c>
       <c r="Q15">
@@ -2267,25 +2389,25 @@
       <c r="R15">
         <v>15.13</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="23">
         <v>1.41</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="23">
         <v>0.79</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="23">
         <v>3.05</v>
       </c>
       <c r="V15">
         <v>15.12</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X15" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="Y15" s="23">
         <v>1.61</v>
       </c>
       <c r="Z15">
@@ -2294,11 +2416,11 @@
       <c r="AA15">
         <v>13.76</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB15" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40473</v>
       </c>
@@ -2314,37 +2436,37 @@
       <c r="E16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="23">
         <v>4.72</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="23">
         <v>0.9</v>
       </c>
       <c r="H16">
         <v>11.78</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>0.02</v>
       </c>
       <c r="J16">
         <v>9.61</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="23">
         <v>1.05</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="23">
         <v>2.73</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="23">
         <v>0.75</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="23">
         <v>0.8</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="23">
         <v>1.06</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="23">
         <v>3.2</v>
       </c>
       <c r="Q16">
@@ -2353,25 +2475,25 @@
       <c r="R16">
         <v>12.13</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="23">
         <v>0.25</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="23">
         <v>0.65</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="23">
         <v>3.05</v>
       </c>
       <c r="V16">
         <v>4.13</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="23">
         <v>0.61</v>
       </c>
       <c r="Z16">
@@ -2380,11 +2502,11 @@
       <c r="AA16">
         <v>9.92</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40478</v>
       </c>
@@ -2466,11 +2588,11 @@
       <c r="AA17">
         <v>52.02</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="32">
         <v>202.61</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>39689</v>
       </c>
@@ -2501,10 +2623,10 @@
       <c r="J18">
         <v>16.559999999999999</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="23">
         <v>0.72</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="25">
         <v>14.72</v>
       </c>
       <c r="M18">
@@ -2519,7 +2641,7 @@
       <c r="P18">
         <v>52.31</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="23">
         <v>7.62</v>
       </c>
       <c r="R18">
@@ -2528,10 +2650,10 @@
       <c r="S18">
         <v>2.68</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="23">
         <v>1.78</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="23">
         <v>2.06</v>
       </c>
       <c r="V18">
@@ -2552,11 +2674,11 @@
       <c r="AA18">
         <v>29.57</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40228</v>
       </c>
@@ -2617,7 +2739,7 @@
       <c r="T19">
         <v>8.18</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="23">
         <v>9.43</v>
       </c>
       <c r="V19">
@@ -2638,11 +2760,11 @@
       <c r="AA19">
         <v>44.91</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="32">
         <v>116.23</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40295</v>
       </c>
@@ -2658,7 +2780,7 @@
       <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="23">
         <v>2.04</v>
       </c>
       <c r="G20">
@@ -2667,19 +2789,19 @@
       <c r="H20">
         <v>9.56</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="23">
         <v>0.92</v>
       </c>
       <c r="J20">
         <v>16.559999999999999</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="23">
         <v>1.05</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="23">
         <v>4.59</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="23">
         <v>0.78</v>
       </c>
       <c r="N20">
@@ -2688,7 +2810,7 @@
       <c r="O20">
         <v>178.34</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="23">
         <v>3.2</v>
       </c>
       <c r="Q20">
@@ -2697,38 +2819,38 @@
       <c r="R20">
         <v>10.94</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="23">
         <v>0.44</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="23">
         <v>0.65</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="23">
         <v>3.05</v>
       </c>
       <c r="V20">
         <v>128.6</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="23">
         <v>1.61</v>
       </c>
       <c r="Z20">
         <v>63.44</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AA20" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AB20" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1">
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40482</v>
       </c>
@@ -2744,77 +2866,77 @@
       <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="24">
         <v>2.04</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="24">
         <v>0.9</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="24">
         <v>0.8</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="24">
         <v>0.6</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="24">
         <v>1.2</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="24">
         <v>1.05</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="24">
         <v>1.55</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="24">
         <v>0.75</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="24">
         <v>0.8</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="24">
         <v>3.2</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="24">
         <v>2.25</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="24">
         <v>2.9</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="24">
         <v>0.25</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="24">
         <v>0.65</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="24">
         <v>3.05</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="24">
         <v>0.79</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21" s="24">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="24">
         <v>0.8</v>
       </c>
-      <c r="Y21" s="29">
+      <c r="Y21" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z21" s="29">
+      <c r="Z21" s="24">
         <v>0.8</v>
       </c>
-      <c r="AA21" s="29">
+      <c r="AA21" s="24">
         <v>6</v>
       </c>
-      <c r="AB21" s="29">
+      <c r="AB21" s="34">
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39813</v>
       </c>
@@ -2825,10 +2947,10 @@
         <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>30.53</v>
@@ -2872,7 +2994,7 @@
       <c r="S22">
         <v>5.19</v>
       </c>
-      <c r="T22" s="28">
+      <c r="T22" s="23">
         <v>0.88</v>
       </c>
       <c r="U22">
@@ -2896,11 +3018,11 @@
       <c r="AA22">
         <v>37.729999999999997</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="32">
         <v>38.04</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>39827</v>
       </c>
@@ -2911,15 +3033,15 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="30">
+        <v>123</v>
+      </c>
+      <c r="F23" s="25">
         <v>13.42</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="23">
         <v>1.29</v>
       </c>
       <c r="H23">
@@ -2931,7 +3053,7 @@
       <c r="J23">
         <v>33.619999999999997</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="23">
         <v>1.05</v>
       </c>
       <c r="L23">
@@ -2958,10 +3080,10 @@
       <c r="S23">
         <v>3.87</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="23">
         <v>3.2</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="23">
         <v>9.43</v>
       </c>
       <c r="V23">
@@ -2982,11 +3104,11 @@
       <c r="AA23">
         <v>26.82</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>39988</v>
       </c>
@@ -2997,33 +3119,33 @@
         <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>13.42</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="H24">
         <v>13.97</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="23">
         <v>1.21</v>
       </c>
       <c r="J24">
         <v>23.42</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="23">
         <v>1.79</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="23">
         <v>4.59</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="23">
         <v>0.75</v>
       </c>
       <c r="N24">
@@ -3041,13 +3163,13 @@
       <c r="R24">
         <v>16.82</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="23">
         <v>0.25</v>
       </c>
-      <c r="T24" s="28">
+      <c r="T24" s="23">
         <v>0.65</v>
       </c>
-      <c r="U24" s="28">
+      <c r="U24" s="23">
         <v>3.05</v>
       </c>
       <c r="V24">
@@ -3056,10 +3178,10 @@
       <c r="W24">
         <v>29.16</v>
       </c>
-      <c r="X24" s="28">
+      <c r="X24" s="23">
         <v>2.15</v>
       </c>
-      <c r="Y24" s="28">
+      <c r="Y24" s="23">
         <v>1.61</v>
       </c>
       <c r="Z24">
@@ -3068,11 +3190,11 @@
       <c r="AA24">
         <v>11.85</v>
       </c>
-      <c r="AB24" s="28">
+      <c r="AB24" s="31">
         <v>30.82</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40318</v>
       </c>
@@ -3083,12 +3205,12 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="28">
+        <v>125</v>
+      </c>
+      <c r="F25" s="23">
         <v>4.72</v>
       </c>
       <c r="G25">
@@ -3097,19 +3219,19 @@
       <c r="H25">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="23">
         <v>1.06</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="23">
         <v>6.07</v>
       </c>
       <c r="K25">
         <v>7.65</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="23">
         <v>2.73</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="23">
         <v>0.75</v>
       </c>
       <c r="N25">
@@ -3118,7 +3240,7 @@
       <c r="O25">
         <v>117.27</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="23">
         <v>8.1300000000000008</v>
       </c>
       <c r="Q25">
@@ -3127,22 +3249,22 @@
       <c r="R25">
         <v>18.36</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="23">
         <v>0.44</v>
       </c>
-      <c r="T25" s="28">
+      <c r="T25" s="23">
         <v>2.21</v>
       </c>
-      <c r="U25" s="28">
+      <c r="U25" s="23">
         <v>3.05</v>
       </c>
       <c r="V25">
         <v>120.74</v>
       </c>
-      <c r="W25" s="28">
+      <c r="W25" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X25" s="28">
+      <c r="X25" s="23">
         <v>1.04</v>
       </c>
       <c r="Y25">
@@ -3154,11 +3276,11 @@
       <c r="AA25">
         <v>12.81</v>
       </c>
-      <c r="AB25" s="28">
+      <c r="AB25" s="31">
         <v>22.71</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40360</v>
       </c>
@@ -3169,42 +3291,42 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>9.2899999999999991</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="23">
         <v>0.9</v>
       </c>
       <c r="H26">
         <v>15.07</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="23">
         <v>0.02</v>
       </c>
       <c r="J26">
         <v>16.559999999999999</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="23">
         <v>1.05</v>
       </c>
       <c r="L26">
         <v>6.37</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="23">
         <v>0.75</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="23">
         <v>0.8</v>
       </c>
       <c r="O26">
         <v>3.51</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="23">
         <v>3.2</v>
       </c>
       <c r="Q26">
@@ -3213,25 +3335,25 @@
       <c r="R26">
         <v>9.59</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="23">
         <v>0.44</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U26" s="28">
+      <c r="U26" s="23">
         <v>3.05</v>
       </c>
       <c r="V26">
         <v>11.93</v>
       </c>
-      <c r="W26" s="28">
+      <c r="W26" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X26" s="28">
+      <c r="X26" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="23">
         <v>2.0699999999999998</v>
       </c>
       <c r="Z26">
@@ -3240,11 +3362,11 @@
       <c r="AA26">
         <v>9.92</v>
       </c>
-      <c r="AB26" s="28">
+      <c r="AB26" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40476</v>
       </c>
@@ -3255,10 +3377,10 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>137.88</v>
@@ -3326,11 +3448,11 @@
       <c r="AA27">
         <v>98.94</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="32">
         <v>253.1</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39673</v>
       </c>
@@ -3341,69 +3463,69 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="28">
+        <v>128</v>
+      </c>
+      <c r="F28" s="23">
         <v>2.04</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="23">
         <v>0.9</v>
       </c>
       <c r="H28">
         <v>7.33</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="23">
         <v>0.18</v>
       </c>
       <c r="J28">
         <v>13.1</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="23">
         <v>1.05</v>
       </c>
       <c r="L28">
         <v>19.47</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="23">
         <v>0.75</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="23">
         <v>0.8</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="23">
         <v>5.81</v>
       </c>
       <c r="R28">
         <v>12.13</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="23">
         <v>0.25</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="23">
         <v>0.65</v>
       </c>
-      <c r="U28" s="28">
+      <c r="U28" s="23">
         <v>3.05</v>
       </c>
       <c r="V28">
         <v>4.5599999999999996</v>
       </c>
-      <c r="W28" s="28">
+      <c r="W28" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y28" s="28">
+      <c r="Y28" s="23">
         <v>0.61</v>
       </c>
       <c r="Z28">
@@ -3412,11 +3534,11 @@
       <c r="AA28">
         <v>9.92</v>
       </c>
-      <c r="AB28" s="28">
+      <c r="AB28" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40212</v>
       </c>
@@ -3427,57 +3549,57 @@
         <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F29">
         <v>9.2899999999999991</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="23">
         <v>0.9</v>
       </c>
       <c r="H29">
         <v>6.2</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="23">
         <v>1.35</v>
       </c>
       <c r="J29">
         <v>9.61</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="23">
         <v>0.24</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="23">
         <v>4.59</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="23">
         <v>0.75</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="23">
         <v>1.5</v>
       </c>
       <c r="O29">
         <v>32.22</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="23">
         <v>3.2</v>
       </c>
       <c r="Q29">
         <v>9.44</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="23">
         <v>8.01</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="23">
         <v>0.25</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="23">
         <v>0.65</v>
       </c>
-      <c r="U29" s="28">
+      <c r="U29" s="23">
         <v>3.05</v>
       </c>
       <c r="V29">
@@ -3486,10 +3608,10 @@
       <c r="W29">
         <v>9.35</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="23">
         <v>0.03</v>
       </c>
-      <c r="Y29" s="28">
+      <c r="Y29" s="23">
         <v>0.61</v>
       </c>
       <c r="Z29">
@@ -3498,11 +3620,11 @@
       <c r="AA29">
         <v>13.76</v>
       </c>
-      <c r="AB29" s="28">
+      <c r="AB29" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40302</v>
       </c>
@@ -3513,15 +3635,15 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F30">
         <v>26.28</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="23">
         <v>1.24</v>
       </c>
       <c r="H30">
@@ -3533,13 +3655,13 @@
       <c r="J30">
         <v>33.619999999999997</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="23">
         <v>0.24</v>
       </c>
       <c r="L30">
         <v>11.46</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="23">
         <v>1.41</v>
       </c>
       <c r="N30">
@@ -3563,7 +3685,7 @@
       <c r="T30">
         <v>2.71</v>
       </c>
-      <c r="U30" s="28">
+      <c r="U30" s="23">
         <v>8.5</v>
       </c>
       <c r="V30">
@@ -3584,11 +3706,11 @@
       <c r="AA30">
         <v>19.420000000000002</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="32">
         <v>56.76</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>40390</v>
       </c>
@@ -3599,33 +3721,33 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <v>8.2100000000000009</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="23">
         <v>0.9</v>
       </c>
       <c r="H31">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="23">
         <v>1.06</v>
       </c>
       <c r="J31">
         <v>14.83</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="23">
         <v>1.05</v>
       </c>
       <c r="L31">
         <v>13.1</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="23">
         <v>0.75</v>
       </c>
       <c r="N31">
@@ -3634,34 +3756,34 @@
       <c r="O31">
         <v>81.349999999999994</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="23">
         <v>0.25</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="23">
         <v>0.65</v>
       </c>
-      <c r="U31" s="28">
+      <c r="U31" s="23">
         <v>3.05</v>
       </c>
       <c r="V31">
         <v>105.63</v>
       </c>
-      <c r="W31" s="28">
+      <c r="W31" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X31" s="28">
+      <c r="X31" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y31" s="28">
+      <c r="Y31" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="Z31">
@@ -3670,11 +3792,11 @@
       <c r="AA31">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AB31" s="28">
+      <c r="AB31" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40395</v>
       </c>
@@ -3685,33 +3807,33 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="28">
+        <v>132</v>
+      </c>
+      <c r="F32" s="23">
         <v>2.04</v>
       </c>
       <c r="G32">
         <v>26.95</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="23">
         <v>0.8</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="23">
         <v>0.63</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="23">
         <v>1.2</v>
       </c>
       <c r="K32">
         <v>4.16</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="23">
         <v>1.55</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="23">
         <v>0.75</v>
       </c>
       <c r="N32">
@@ -3720,47 +3842,47 @@
       <c r="O32">
         <v>92.78</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="23">
         <v>4.0199999999999996</v>
       </c>
       <c r="R32">
         <v>13.21</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="23">
         <v>0.25</v>
       </c>
-      <c r="T32" s="28">
+      <c r="T32" s="23">
         <v>0.69</v>
       </c>
-      <c r="U32" s="28">
+      <c r="U32" s="23">
         <v>3.05</v>
       </c>
       <c r="V32">
         <v>91.38</v>
       </c>
-      <c r="W32" s="28">
+      <c r="W32" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X32" s="28">
+      <c r="X32" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y32" s="28">
+      <c r="Y32" s="23">
         <v>0.61</v>
       </c>
       <c r="Z32">
         <v>21.99</v>
       </c>
-      <c r="AA32" s="28">
+      <c r="AA32" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB32" s="28">
+      <c r="AB32" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>40479</v>
       </c>
@@ -3771,42 +3893,42 @@
         <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="29">
+        <v>133</v>
+      </c>
+      <c r="F33" s="24">
         <v>1.05</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="24">
         <v>0.9</v>
       </c>
       <c r="H33" s="2">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="24">
         <v>0.48</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="24">
         <v>6.07</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="24">
         <v>1.05</v>
       </c>
       <c r="L33" s="2">
         <v>6.37</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="24">
         <v>0.75</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="24">
         <v>0.03</v>
       </c>
       <c r="O33" s="2">
         <v>11.92</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="24">
         <v>3.2</v>
       </c>
       <c r="Q33" s="2">
@@ -3815,25 +3937,25 @@
       <c r="R33" s="2">
         <v>13.21</v>
       </c>
-      <c r="S33" s="29">
+      <c r="S33" s="24">
         <v>0.25</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="24">
         <v>0.65</v>
       </c>
-      <c r="U33" s="29">
+      <c r="U33" s="24">
         <v>3.05</v>
       </c>
       <c r="V33" s="2">
         <v>22.8</v>
       </c>
-      <c r="W33" s="29">
+      <c r="W33" s="24">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X33" s="29">
+      <c r="X33" s="24">
         <v>0.8</v>
       </c>
-      <c r="Y33" s="29">
+      <c r="Y33" s="24">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z33" s="2">
@@ -3842,11 +3964,11 @@
       <c r="AA33" s="2">
         <v>20.350000000000001</v>
       </c>
-      <c r="AB33" s="29">
+      <c r="AB33" s="34">
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40335</v>
       </c>
@@ -3857,10 +3979,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F34">
         <v>11.4</v>
@@ -3871,19 +3993,19 @@
       <c r="H34">
         <v>20.48</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="23">
         <v>1.78</v>
       </c>
       <c r="J34">
         <v>21.71</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="23">
         <v>0.49</v>
       </c>
       <c r="L34">
         <v>14.72</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="23">
         <v>1.41</v>
       </c>
       <c r="N34">
@@ -3901,13 +4023,13 @@
       <c r="R34">
         <v>17.61</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="23">
         <v>2.27</v>
       </c>
-      <c r="T34" s="28">
+      <c r="T34" s="23">
         <v>1.86</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="23">
         <v>5.16</v>
       </c>
       <c r="V34">
@@ -3928,11 +4050,11 @@
       <c r="AA34">
         <v>19.420000000000002</v>
       </c>
-      <c r="AB34" s="28">
+      <c r="AB34" s="31">
         <v>26.9</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40440</v>
       </c>
@@ -3943,12 +4065,12 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="28">
+        <v>135</v>
+      </c>
+      <c r="F35" s="23">
         <v>7.08</v>
       </c>
       <c r="G35">
@@ -3957,19 +4079,19 @@
       <c r="H35">
         <v>9.56</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="23">
         <v>1.5</v>
       </c>
       <c r="J35">
         <v>16.559999999999999</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="23">
         <v>1.05</v>
       </c>
       <c r="L35">
         <v>6.37</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="23">
         <v>0.75</v>
       </c>
       <c r="N35">
@@ -3978,7 +4100,7 @@
       <c r="O35">
         <v>137.63</v>
       </c>
-      <c r="P35" s="28">
+      <c r="P35" s="23">
         <v>4.6900000000000004</v>
       </c>
       <c r="Q35">
@@ -3987,25 +4109,25 @@
       <c r="R35">
         <v>14.67</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="23">
         <v>1.41</v>
       </c>
-      <c r="T35" s="28">
+      <c r="T35" s="23">
         <v>0.5</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="23">
         <v>7.09</v>
       </c>
       <c r="V35">
         <v>96.41</v>
       </c>
-      <c r="W35" s="28">
+      <c r="W35" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X35">
         <v>4.45</v>
       </c>
-      <c r="Y35" s="28">
+      <c r="Y35" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="Z35">
@@ -4014,11 +4136,11 @@
       <c r="AA35">
         <v>18.48</v>
       </c>
-      <c r="AB35" s="28">
+      <c r="AB35" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40473</v>
       </c>
@@ -4029,10 +4151,10 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <v>13.42</v>
@@ -4043,19 +4165,19 @@
       <c r="H36">
         <v>11.78</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="23">
         <v>1.06</v>
       </c>
       <c r="J36">
         <v>20</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36" s="23">
         <v>0.24</v>
       </c>
       <c r="L36">
         <v>6.37</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="23">
         <v>1.7</v>
       </c>
       <c r="N36">
@@ -4076,10 +4198,10 @@
       <c r="S36">
         <v>2.68</v>
       </c>
-      <c r="T36" s="28">
+      <c r="T36" s="23">
         <v>0.65</v>
       </c>
-      <c r="U36" s="28">
+      <c r="U36" s="23">
         <v>2.06</v>
       </c>
       <c r="V36">
@@ -4088,10 +4210,10 @@
       <c r="W36">
         <v>9.35</v>
       </c>
-      <c r="X36" s="28">
+      <c r="X36" s="23">
         <v>1.64</v>
       </c>
-      <c r="Y36" s="28">
+      <c r="Y36" s="23">
         <v>2.2999999999999998</v>
       </c>
       <c r="Z36">
@@ -4100,11 +4222,11 @@
       <c r="AA36">
         <v>21.28</v>
       </c>
-      <c r="AB36" s="28">
+      <c r="AB36" s="31">
         <v>26.9</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40478</v>
       </c>
@@ -4115,10 +4237,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>13.42</v>
@@ -4129,7 +4251,7 @@
       <c r="H37">
         <v>15.07</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="23">
         <v>1.78</v>
       </c>
       <c r="J37">
@@ -4159,19 +4281,19 @@
       <c r="R37">
         <v>16.82</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="23">
         <v>1.41</v>
       </c>
-      <c r="T37" s="28">
+      <c r="T37" s="23">
         <v>0.5</v>
       </c>
-      <c r="U37" s="28">
+      <c r="U37" s="23">
         <v>4.16</v>
       </c>
       <c r="V37">
         <v>320.54000000000002</v>
       </c>
-      <c r="W37" s="28">
+      <c r="W37" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X37">
@@ -4186,11 +4308,11 @@
       <c r="AA37">
         <v>26.82</v>
       </c>
-      <c r="AB37" s="28">
+      <c r="AB37" s="31">
         <v>18.12</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40295</v>
       </c>
@@ -4201,10 +4323,10 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>42.62</v>
@@ -4272,11 +4394,11 @@
       <c r="AA38">
         <v>105.77</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="32">
         <v>232.28</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39689</v>
       </c>
@@ -4287,10 +4409,10 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>63.48</v>
@@ -4358,11 +4480,11 @@
       <c r="AA39">
         <v>67.849999999999994</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="32">
         <v>239.8</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40482</v>
       </c>
@@ -4373,10 +4495,10 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2">
         <v>159.44</v>
@@ -4444,11 +4566,11 @@
       <c r="AA40" s="2">
         <v>56.44</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AB40" s="33">
         <v>158.47999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39813</v>
       </c>
@@ -4459,7 +4581,7 @@
         <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -4467,13 +4589,13 @@
       <c r="F41">
         <v>25.42</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="23">
         <v>0.91</v>
       </c>
       <c r="H41">
         <v>13.97</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="23">
         <v>20.6</v>
       </c>
       <c r="J41">
@@ -4485,7 +4607,7 @@
       <c r="L41">
         <v>6.37</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="23">
         <v>1.41</v>
       </c>
       <c r="N41">
@@ -4506,10 +4628,10 @@
       <c r="S41">
         <v>2.68</v>
       </c>
-      <c r="T41" s="28">
+      <c r="T41" s="23">
         <v>1.25</v>
       </c>
-      <c r="U41" s="28">
+      <c r="U41" s="23">
         <v>2.34</v>
       </c>
       <c r="V41">
@@ -4530,11 +4652,11 @@
       <c r="AA41">
         <v>32.299999999999997</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="32">
         <v>82.9</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39827</v>
       </c>
@@ -4545,7 +4667,7 @@
         <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -4553,19 +4675,19 @@
       <c r="F42">
         <v>13.42</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="23">
         <v>2.2999999999999998</v>
       </c>
       <c r="H42">
         <v>25.84</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="23">
         <v>1.64</v>
       </c>
       <c r="J42">
         <v>38.69</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="23">
         <v>0.49</v>
       </c>
       <c r="L42">
@@ -4592,7 +4714,7 @@
       <c r="S42">
         <v>3.09</v>
       </c>
-      <c r="T42" s="28">
+      <c r="T42" s="23">
         <v>1.43</v>
       </c>
       <c r="U42">
@@ -4616,11 +4738,11 @@
       <c r="AA42">
         <v>17.54</v>
       </c>
-      <c r="AB42" s="28">
+      <c r="AB42" s="31">
         <v>12.91</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39988</v>
       </c>
@@ -4631,7 +4753,7 @@
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4657,7 +4779,7 @@
       <c r="L43">
         <v>13.1</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="23">
         <v>1.98</v>
       </c>
       <c r="N43">
@@ -4678,10 +4800,10 @@
       <c r="S43">
         <v>5</v>
       </c>
-      <c r="T43" s="28">
+      <c r="T43" s="23">
         <v>1.78</v>
       </c>
-      <c r="U43" s="28">
+      <c r="U43" s="23">
         <v>9.8800000000000008</v>
       </c>
       <c r="V43">
@@ -4702,11 +4824,11 @@
       <c r="AA43">
         <v>32.299999999999997</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="32">
         <v>87.66</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40318</v>
       </c>
@@ -4717,7 +4839,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -4725,25 +4847,25 @@
       <c r="F44">
         <v>20.98</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="23">
         <v>1.86</v>
       </c>
       <c r="H44">
         <v>13.97</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="23">
         <v>1.5</v>
       </c>
       <c r="J44">
         <v>23.42</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="23">
         <v>1.37</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44" s="23">
         <v>4.59</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="23">
         <v>0.78</v>
       </c>
       <c r="N44">
@@ -4761,13 +4883,13 @@
       <c r="R44">
         <v>17.61</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="23">
         <v>0.44</v>
       </c>
-      <c r="T44" s="28">
+      <c r="T44" s="23">
         <v>1.1599999999999999</v>
       </c>
-      <c r="U44" s="28">
+      <c r="U44" s="23">
         <v>4.16</v>
       </c>
       <c r="V44">
@@ -4779,7 +4901,7 @@
       <c r="X44">
         <v>5.68</v>
       </c>
-      <c r="Y44" s="28">
+      <c r="Y44" s="23">
         <v>2.0699999999999998</v>
       </c>
       <c r="Z44">
@@ -4788,11 +4910,11 @@
       <c r="AA44">
         <v>24.98</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40360</v>
       </c>
@@ -4803,7 +4925,7 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
@@ -4811,7 +4933,7 @@
       <c r="F45">
         <v>24.54</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="23">
         <v>1.24</v>
       </c>
       <c r="H45">
@@ -4823,7 +4945,7 @@
       <c r="J45">
         <v>47.12</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="23">
         <v>1.37</v>
       </c>
       <c r="L45">
@@ -4853,7 +4975,7 @@
       <c r="T45">
         <v>5.48</v>
       </c>
-      <c r="U45" s="28">
+      <c r="U45" s="23">
         <v>6.13</v>
       </c>
       <c r="V45">
@@ -4874,11 +4996,11 @@
       <c r="AA45">
         <v>48.47</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="32">
         <v>112.06</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40476</v>
       </c>
@@ -4889,7 +5011,7 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -4960,11 +5082,11 @@
       <c r="AA46">
         <v>81.739999999999995</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="32">
         <v>213.75</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39673</v>
       </c>
@@ -4975,7 +5097,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -4983,25 +5105,25 @@
       <c r="F47">
         <v>11.4</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="23">
         <v>0.9</v>
       </c>
       <c r="H47">
         <v>11.78</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="23">
         <v>1.5</v>
       </c>
       <c r="J47">
         <v>30.23</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="23">
         <v>1.05</v>
       </c>
       <c r="L47">
         <v>9.7899999999999991</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="23">
         <v>1.98</v>
       </c>
       <c r="N47">
@@ -5010,7 +5132,7 @@
       <c r="O47">
         <v>297.44</v>
       </c>
-      <c r="P47" s="28">
+      <c r="P47" s="23">
         <v>8.1300000000000008</v>
       </c>
       <c r="Q47">
@@ -5019,19 +5141,19 @@
       <c r="R47">
         <v>15.13</v>
       </c>
-      <c r="S47" s="28">
+      <c r="S47" s="23">
         <v>2.27</v>
       </c>
-      <c r="T47" s="28">
+      <c r="T47" s="23">
         <v>0.5</v>
       </c>
-      <c r="U47" s="28">
+      <c r="U47" s="23">
         <v>7.57</v>
       </c>
       <c r="V47">
         <v>130.69</v>
       </c>
-      <c r="W47" s="28">
+      <c r="W47" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X47">
@@ -5046,11 +5168,11 @@
       <c r="AA47">
         <v>17.54</v>
       </c>
-      <c r="AB47" s="28">
+      <c r="AB47" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40212</v>
       </c>
@@ -5061,7 +5183,7 @@
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
@@ -5069,25 +5191,25 @@
       <c r="F48">
         <v>13.42</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="23">
         <v>0.9</v>
       </c>
       <c r="H48">
         <v>8.4499999999999993</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="23">
         <v>2.06</v>
       </c>
       <c r="J48">
         <v>23.42</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="23">
         <v>0.72</v>
       </c>
       <c r="L48">
         <v>8.1</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="23">
         <v>1.41</v>
       </c>
       <c r="N48">
@@ -5105,13 +5227,13 @@
       <c r="R48">
         <v>15.57</v>
       </c>
-      <c r="S48" s="28">
+      <c r="S48" s="23">
         <v>1.85</v>
       </c>
       <c r="T48">
         <v>3.44</v>
       </c>
-      <c r="U48" s="28">
+      <c r="U48" s="23">
         <v>8.5</v>
       </c>
       <c r="V48">
@@ -5132,11 +5254,11 @@
       <c r="AA48">
         <v>24.98</v>
       </c>
-      <c r="AB48" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AB48" s="31">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40302</v>
       </c>
@@ -5147,7 +5269,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -5218,11 +5340,11 @@
       <c r="AA49">
         <v>37.729999999999997</v>
       </c>
-      <c r="AB49">
+      <c r="AB49" s="32">
         <v>62.38</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40390</v>
       </c>
@@ -5233,7 +5355,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -5241,7 +5363,7 @@
       <c r="F50">
         <v>20.98</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="23">
         <v>0.3</v>
       </c>
       <c r="H50">
@@ -5253,13 +5375,13 @@
       <c r="J50">
         <v>42.07</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="23">
         <v>1.69</v>
       </c>
       <c r="L50">
         <v>27.16</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="23">
         <v>0.78</v>
       </c>
       <c r="N50">
@@ -5283,7 +5405,7 @@
       <c r="T50">
         <v>3.12</v>
       </c>
-      <c r="U50" s="28">
+      <c r="U50" s="23">
         <v>6.62</v>
       </c>
       <c r="V50">
@@ -5304,11 +5426,11 @@
       <c r="AA50">
         <v>38.64</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="32">
         <v>50.88</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40395</v>
       </c>
@@ -5319,7 +5441,7 @@
         <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -5390,11 +5512,11 @@
       <c r="AA51">
         <v>61.72</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="32">
         <v>213.75</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" thickBot="1">
+    <row r="52" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40479</v>
       </c>
@@ -5405,7 +5527,7 @@
         <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -5476,11 +5598,11 @@
       <c r="AA52" s="2">
         <v>86.92</v>
       </c>
-      <c r="AB52" s="2">
+      <c r="AB52" s="33">
         <v>167.36</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40335</v>
       </c>
@@ -5491,7 +5613,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>88</v>
@@ -5499,19 +5621,19 @@
       <c r="F53">
         <v>29.69</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="23">
         <v>0.36</v>
       </c>
       <c r="H53">
         <v>24.77</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="23">
         <v>1.71</v>
       </c>
       <c r="J53">
         <v>26.83</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K53" s="23">
         <v>1.05</v>
       </c>
       <c r="L53">
@@ -5538,10 +5660,10 @@
       <c r="S53">
         <v>3.09</v>
       </c>
-      <c r="T53" s="28">
+      <c r="T53" s="23">
         <v>2.54</v>
       </c>
-      <c r="U53" s="28">
+      <c r="U53" s="23">
         <v>7.57</v>
       </c>
       <c r="V53">
@@ -5562,11 +5684,11 @@
       <c r="AA53">
         <v>36.83</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" s="32">
         <v>44.67</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40440</v>
       </c>
@@ -5577,7 +5699,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>96</v>
@@ -5585,25 +5707,25 @@
       <c r="F54">
         <v>17.29</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="23">
         <v>0.9</v>
       </c>
       <c r="H54">
         <v>13.97</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="23">
         <v>0.99</v>
       </c>
       <c r="J54">
         <v>13.1</v>
       </c>
-      <c r="K54" s="28">
+      <c r="K54" s="23">
         <v>1.05</v>
       </c>
-      <c r="L54" s="28">
+      <c r="L54" s="23">
         <v>4.59</v>
       </c>
-      <c r="M54" s="28">
+      <c r="M54" s="23">
         <v>0.75</v>
       </c>
       <c r="N54">
@@ -5612,34 +5734,34 @@
       <c r="O54">
         <v>50.75</v>
       </c>
-      <c r="P54" s="28">
+      <c r="P54" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q54" s="28">
+      <c r="Q54" s="23">
         <v>7.62</v>
       </c>
       <c r="R54">
         <v>12.13</v>
       </c>
-      <c r="S54" s="28">
+      <c r="S54" s="23">
         <v>2.27</v>
       </c>
-      <c r="T54" s="28">
+      <c r="T54" s="23">
         <v>0.65</v>
       </c>
-      <c r="U54" s="28">
+      <c r="U54" s="23">
         <v>3.05</v>
       </c>
       <c r="V54">
         <v>102.56</v>
       </c>
-      <c r="W54" s="28">
+      <c r="W54" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X54" s="28">
+      <c r="X54" s="23">
         <v>1.04</v>
       </c>
-      <c r="Y54" s="28">
+      <c r="Y54" s="23">
         <v>0.88</v>
       </c>
       <c r="Z54">
@@ -5648,11 +5770,11 @@
       <c r="AA54">
         <v>11.85</v>
       </c>
-      <c r="AB54" s="28">
+      <c r="AB54" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40473</v>
       </c>
@@ -5663,7 +5785,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -5671,25 +5793,25 @@
       <c r="F55">
         <v>17.29</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="23">
         <v>0.15</v>
       </c>
       <c r="H55">
         <v>15.07</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="23">
         <v>1.21</v>
       </c>
       <c r="J55">
         <v>26.83</v>
       </c>
-      <c r="K55" s="28">
+      <c r="K55" s="23">
         <v>0.49</v>
       </c>
       <c r="L55">
         <v>8.1</v>
       </c>
-      <c r="M55" s="28">
+      <c r="M55" s="23">
         <v>1.98</v>
       </c>
       <c r="N55">
@@ -5698,7 +5820,7 @@
       <c r="O55">
         <v>340.26</v>
       </c>
-      <c r="P55" s="28">
+      <c r="P55" s="23">
         <v>4.6900000000000004</v>
       </c>
       <c r="Q55">
@@ -5710,7 +5832,7 @@
       <c r="S55">
         <v>3.09</v>
       </c>
-      <c r="T55" s="28">
+      <c r="T55" s="23">
         <v>0.65</v>
       </c>
       <c r="U55">
@@ -5725,7 +5847,7 @@
       <c r="X55">
         <v>4.45</v>
       </c>
-      <c r="Y55" s="28">
+      <c r="Y55" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="Z55">
@@ -5734,11 +5856,11 @@
       <c r="AA55">
         <v>30.48</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="32">
         <v>50.88</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40478</v>
       </c>
@@ -5749,7 +5871,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>64</v>
@@ -5820,11 +5942,11 @@
       <c r="AA56">
         <v>66.97</v>
       </c>
-      <c r="AB56">
+      <c r="AB56" s="32">
         <v>209.01</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40228</v>
       </c>
@@ -5835,7 +5957,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>24</v>
@@ -5843,13 +5965,13 @@
       <c r="F57">
         <v>33.840000000000003</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="23">
         <v>1.65</v>
       </c>
       <c r="H57">
         <v>33.26</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="23">
         <v>2.35</v>
       </c>
       <c r="J57">
@@ -5882,10 +6004,10 @@
       <c r="S57">
         <v>4.4400000000000004</v>
       </c>
-      <c r="T57" s="28">
+      <c r="T57" s="23">
         <v>2.37</v>
       </c>
-      <c r="U57" s="28">
+      <c r="U57" s="23">
         <v>7.57</v>
       </c>
       <c r="V57">
@@ -5906,11 +6028,11 @@
       <c r="AA57">
         <v>34.119999999999997</v>
       </c>
-      <c r="AB57">
+      <c r="AB57" s="32">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>40295</v>
       </c>
@@ -5921,7 +6043,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
@@ -5941,13 +6063,13 @@
       <c r="J58">
         <v>23.42</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="23">
         <v>1.37</v>
       </c>
       <c r="L58">
         <v>30.18</v>
       </c>
-      <c r="M58" s="28">
+      <c r="M58" s="23">
         <v>0.78</v>
       </c>
       <c r="N58">
@@ -5965,13 +6087,13 @@
       <c r="R58">
         <v>16.82</v>
       </c>
-      <c r="S58" s="28">
+      <c r="S58" s="23">
         <v>1.85</v>
       </c>
-      <c r="T58" s="28">
+      <c r="T58" s="23">
         <v>1.86</v>
       </c>
-      <c r="U58" s="28">
+      <c r="U58" s="23">
         <v>3.91</v>
       </c>
       <c r="V58">
@@ -5992,11 +6114,11 @@
       <c r="AA58">
         <v>23.14</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="32">
         <v>38.04</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>39689</v>
       </c>
@@ -6007,7 +6129,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
@@ -6015,25 +6137,25 @@
       <c r="F59">
         <v>24.54</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="23">
         <v>2.35</v>
       </c>
       <c r="H59">
         <v>22.63</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="23">
         <v>1.35</v>
       </c>
       <c r="J59">
         <v>33.619999999999997</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K59" s="23">
         <v>0.94</v>
       </c>
       <c r="L59">
         <v>8.9499999999999993</v>
       </c>
-      <c r="M59" s="28">
+      <c r="M59" s="23">
         <v>1.41</v>
       </c>
       <c r="N59">
@@ -6054,10 +6176,10 @@
       <c r="S59">
         <v>4.63</v>
       </c>
-      <c r="T59" s="28">
+      <c r="T59" s="23">
         <v>1.78</v>
       </c>
-      <c r="U59" s="28">
+      <c r="U59" s="23">
         <v>3.65</v>
       </c>
       <c r="V59">
@@ -6078,11 +6200,11 @@
       <c r="AA59">
         <v>32.299999999999997</v>
       </c>
-      <c r="AB59" s="28">
+      <c r="AB59" s="31">
         <v>22.71</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1">
+    <row r="60" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40482</v>
       </c>
@@ -6093,7 +6215,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -6164,11 +6286,11 @@
       <c r="AA60" s="2">
         <v>74.81</v>
       </c>
-      <c r="AB60" s="2">
+      <c r="AB60" s="33">
         <v>347.98</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39813</v>
       </c>
@@ -6184,52 +6306,52 @@
       <c r="E61" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="23">
         <v>1.05</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="23">
         <v>0.9</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="23">
         <v>0.34</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="23">
         <v>0.02</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="23">
         <v>2.46</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="23">
         <v>1.05</v>
       </c>
-      <c r="L61" s="28">
+      <c r="L61" s="23">
         <v>2.73</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="23">
         <v>0.75</v>
       </c>
-      <c r="N61" s="28">
+      <c r="N61" s="23">
         <v>0.8</v>
       </c>
       <c r="O61">
         <v>6.94</v>
       </c>
-      <c r="P61" s="28">
+      <c r="P61" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q61" s="28">
+      <c r="Q61" s="23">
         <v>2.25</v>
       </c>
-      <c r="R61" s="28">
+      <c r="R61" s="23">
         <v>2.9</v>
       </c>
-      <c r="S61" s="28">
+      <c r="S61" s="23">
         <v>0.25</v>
       </c>
-      <c r="T61" s="28">
+      <c r="T61" s="23">
         <v>0.65</v>
       </c>
-      <c r="U61" s="28">
+      <c r="U61" s="23">
         <v>3.05</v>
       </c>
       <c r="V61">
@@ -6238,23 +6360,23 @@
       <c r="W61">
         <v>9.35</v>
       </c>
-      <c r="X61" s="28">
+      <c r="X61" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y61" s="28">
+      <c r="Y61" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z61" s="28">
+      <c r="Z61" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA61" s="28">
+      <c r="AA61" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB61" s="28">
+      <c r="AB61" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39827</v>
       </c>
@@ -6270,7 +6392,7 @@
       <c r="E62" t="s">
         <v>62</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="23">
         <v>2.04</v>
       </c>
       <c r="G62">
@@ -6279,55 +6401,55 @@
       <c r="H62">
         <v>2.75</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="23">
         <v>0.18</v>
       </c>
       <c r="J62">
         <v>9.61</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="23">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="23">
         <v>1.55</v>
       </c>
       <c r="M62">
         <v>10.27</v>
       </c>
-      <c r="N62" s="28">
+      <c r="N62" s="23">
         <v>1.5</v>
       </c>
       <c r="O62">
         <v>23.08</v>
       </c>
-      <c r="P62" s="28">
+      <c r="P62" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q62" s="28">
+      <c r="Q62" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R62" s="28">
+      <c r="R62" s="23">
         <v>5.98</v>
       </c>
-      <c r="S62" s="28">
+      <c r="S62" s="23">
         <v>0.25</v>
       </c>
-      <c r="T62" s="28">
+      <c r="T62" s="23">
         <v>0.65</v>
       </c>
-      <c r="U62" s="28">
+      <c r="U62" s="23">
         <v>3.05</v>
       </c>
       <c r="V62">
         <v>13.08</v>
       </c>
-      <c r="W62" s="28">
+      <c r="W62" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X62" s="28">
+      <c r="X62" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y62" s="28">
+      <c r="Y62" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z62">
@@ -6336,11 +6458,11 @@
       <c r="AA62">
         <v>9.92</v>
       </c>
-      <c r="AB62" s="28">
+      <c r="AB62" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>39988</v>
       </c>
@@ -6356,52 +6478,52 @@
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="23">
         <v>5.93</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="23">
         <v>0.9</v>
       </c>
       <c r="H63">
         <v>2.75</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="23">
         <v>0.6</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="23">
         <v>6.07</v>
       </c>
-      <c r="K63" s="28">
+      <c r="K63" s="23">
         <v>0.72</v>
       </c>
-      <c r="L63" s="28">
+      <c r="L63" s="23">
         <v>2.73</v>
       </c>
-      <c r="M63" s="28">
+      <c r="M63" s="23">
         <v>0.75</v>
       </c>
-      <c r="N63" s="28">
+      <c r="N63" s="23">
         <v>0.32</v>
       </c>
       <c r="O63">
         <v>6.04</v>
       </c>
-      <c r="P63" s="28">
+      <c r="P63" s="23">
         <v>0.74</v>
       </c>
-      <c r="Q63" s="28">
+      <c r="Q63" s="23">
         <v>7.62</v>
       </c>
-      <c r="R63" s="28">
+      <c r="R63" s="23">
         <v>8.01</v>
       </c>
-      <c r="S63" s="28">
+      <c r="S63" s="23">
         <v>0.25</v>
       </c>
-      <c r="T63" s="28">
+      <c r="T63" s="23">
         <v>0.65</v>
       </c>
-      <c r="U63" s="28">
+      <c r="U63" s="23">
         <v>3.05</v>
       </c>
       <c r="V63">
@@ -6410,10 +6532,10 @@
       <c r="W63">
         <v>29.16</v>
       </c>
-      <c r="X63" s="28">
+      <c r="X63" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y63" s="28">
+      <c r="Y63" s="23">
         <v>0.61</v>
       </c>
       <c r="Z63">
@@ -6422,11 +6544,11 @@
       <c r="AA63">
         <v>11.85</v>
       </c>
-      <c r="AB63" s="28">
+      <c r="AB63" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40318</v>
       </c>
@@ -6442,7 +6564,7 @@
       <c r="E64" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="23">
         <v>4.72</v>
       </c>
       <c r="G64">
@@ -6451,43 +6573,43 @@
       <c r="H64">
         <v>2.75</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="23">
         <v>0.6</v>
       </c>
       <c r="J64">
         <v>9.61</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K64" s="23">
         <v>0.49</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L64" s="23">
         <v>2.73</v>
       </c>
-      <c r="M64" s="28">
+      <c r="M64" s="23">
         <v>0.78</v>
       </c>
-      <c r="N64" s="28">
+      <c r="N64" s="23">
         <v>1.1399999999999999</v>
       </c>
       <c r="O64">
         <v>15.07</v>
       </c>
-      <c r="P64" s="28">
+      <c r="P64" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q64" s="28">
+      <c r="Q64" s="23">
         <v>6.72</v>
       </c>
-      <c r="R64" s="28">
+      <c r="R64" s="23">
         <v>2.9</v>
       </c>
-      <c r="S64" s="28">
+      <c r="S64" s="23">
         <v>0.25</v>
       </c>
-      <c r="T64" s="28">
+      <c r="T64" s="23">
         <v>0.65</v>
       </c>
-      <c r="U64" s="28">
+      <c r="U64" s="23">
         <v>3.05</v>
       </c>
       <c r="V64">
@@ -6496,23 +6618,23 @@
       <c r="W64">
         <v>13.46</v>
       </c>
-      <c r="X64" s="28">
+      <c r="X64" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y64" s="28">
+      <c r="Y64" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z64" s="28">
+      <c r="Z64" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA64" s="28">
+      <c r="AA64" s="23">
         <v>6</v>
       </c>
-      <c r="AB64" s="28">
+      <c r="AB64" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>40360</v>
       </c>
@@ -6528,77 +6650,77 @@
       <c r="E65" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="23">
         <v>7.08</v>
       </c>
       <c r="G65">
         <v>3.01</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="23">
         <v>0.34</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="23">
         <v>0.6</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="23">
         <v>2.46</v>
       </c>
-      <c r="K65" s="28">
+      <c r="K65" s="23">
         <v>0.24</v>
       </c>
-      <c r="L65" s="28">
+      <c r="L65" s="23">
         <v>1.55</v>
       </c>
-      <c r="M65" s="28">
+      <c r="M65" s="23">
         <v>0.75</v>
       </c>
-      <c r="N65" s="28">
+      <c r="N65" s="23">
         <v>1.5</v>
       </c>
       <c r="O65">
         <v>24.78</v>
       </c>
-      <c r="P65" s="28">
+      <c r="P65" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q65" s="28">
+      <c r="Q65" s="23">
         <v>8.5299999999999994</v>
       </c>
-      <c r="R65" s="28">
+      <c r="R65" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S65" s="28">
+      <c r="S65" s="23">
         <v>0.25</v>
       </c>
-      <c r="T65" s="28">
+      <c r="T65" s="23">
         <v>0.65</v>
       </c>
-      <c r="U65" s="28">
+      <c r="U65" s="23">
         <v>3.05</v>
       </c>
       <c r="V65">
         <v>21.88</v>
       </c>
-      <c r="W65" s="28">
+      <c r="W65" s="23">
         <v>2.84</v>
       </c>
-      <c r="X65" s="28">
+      <c r="X65" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y65" s="28">
+      <c r="Y65" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z65">
         <v>21.99</v>
       </c>
-      <c r="AA65" s="28">
+      <c r="AA65" s="23">
         <v>6</v>
       </c>
-      <c r="AB65" s="28">
+      <c r="AB65" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40476</v>
       </c>
@@ -6680,11 +6802,11 @@
       <c r="AA66">
         <v>56.44</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="32">
         <v>118.29</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>39674</v>
       </c>
@@ -6700,28 +6822,28 @@
       <c r="E67" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="23">
         <v>0.36</v>
       </c>
       <c r="G67">
         <v>4.72</v>
       </c>
-      <c r="H67" s="28">
+      <c r="H67" s="23">
         <v>0.8</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="23">
         <v>0.6</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="23">
         <v>2.46</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="23">
         <v>1.05</v>
       </c>
-      <c r="L67" s="28">
+      <c r="L67" s="23">
         <v>1.55</v>
       </c>
-      <c r="M67" s="28">
+      <c r="M67" s="23">
         <v>0.75</v>
       </c>
       <c r="N67">
@@ -6730,47 +6852,47 @@
       <c r="O67">
         <v>51.39</v>
       </c>
-      <c r="P67" s="28">
+      <c r="P67" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q67" s="28">
+      <c r="Q67" s="23">
         <v>3.13</v>
       </c>
-      <c r="R67" s="28">
+      <c r="R67" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S67" s="28">
+      <c r="S67" s="23">
         <v>0.25</v>
       </c>
-      <c r="T67" s="28">
+      <c r="T67" s="23">
         <v>0.65</v>
       </c>
-      <c r="U67" s="28">
+      <c r="U67" s="23">
         <v>6.62</v>
       </c>
       <c r="V67">
         <v>39.42</v>
       </c>
-      <c r="W67" s="28">
+      <c r="W67" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X67" s="28">
+      <c r="X67" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y67" s="28">
+      <c r="Y67" s="23">
         <v>0.61</v>
       </c>
-      <c r="Z67" s="28">
+      <c r="Z67" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA67" s="28">
+      <c r="AA67" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB67" s="28">
+      <c r="AB67" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40212</v>
       </c>
@@ -6786,77 +6908,77 @@
       <c r="E68" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="23">
         <v>2.04</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="23">
         <v>0.9</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="23">
         <v>0.34</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="23">
         <v>0.6</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="23">
         <v>1.2</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="23">
         <v>1.05</v>
       </c>
-      <c r="L68" s="28">
+      <c r="L68" s="23">
         <v>1.55</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M68" s="23">
         <v>0.75</v>
       </c>
-      <c r="N68" s="28">
+      <c r="N68" s="23">
         <v>0.8</v>
       </c>
       <c r="O68">
         <v>6.61</v>
       </c>
-      <c r="P68" s="28">
+      <c r="P68" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q68" s="28">
+      <c r="Q68" s="23">
         <v>2.25</v>
       </c>
-      <c r="R68" s="28">
+      <c r="R68" s="23">
         <v>2.9</v>
       </c>
-      <c r="S68" s="28">
+      <c r="S68" s="23">
         <v>0.25</v>
       </c>
-      <c r="T68" s="28">
+      <c r="T68" s="23">
         <v>0.65</v>
       </c>
-      <c r="U68" s="28">
+      <c r="U68" s="23">
         <v>3.05</v>
       </c>
       <c r="V68">
         <v>8.57</v>
       </c>
-      <c r="W68" s="28">
+      <c r="W68" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X68" s="28">
+      <c r="X68" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y68" s="28">
+      <c r="Y68" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z68" s="28">
+      <c r="Z68" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA68" s="28">
+      <c r="AA68" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB68" s="28">
+      <c r="AB68" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40302</v>
       </c>
@@ -6872,28 +6994,28 @@
       <c r="E69" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="23">
         <v>2.04</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="23">
         <v>0.9</v>
       </c>
       <c r="H69">
         <v>2.75</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="23">
         <v>0.6</v>
       </c>
       <c r="J69">
         <v>11.36</v>
       </c>
-      <c r="K69" s="28">
+      <c r="K69" s="23">
         <v>0.94</v>
       </c>
-      <c r="L69" s="28">
+      <c r="L69" s="23">
         <v>1.55</v>
       </c>
-      <c r="M69" s="28">
+      <c r="M69" s="23">
         <v>0.75</v>
       </c>
       <c r="N69">
@@ -6902,22 +7024,22 @@
       <c r="O69">
         <v>12.15</v>
       </c>
-      <c r="P69" s="28">
+      <c r="P69" s="23">
         <v>8.1300000000000008</v>
       </c>
-      <c r="Q69" s="28">
+      <c r="Q69" s="23">
         <v>8.5299999999999994</v>
       </c>
-      <c r="R69" s="28">
+      <c r="R69" s="23">
         <v>5.98</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="23">
         <v>0.25</v>
       </c>
-      <c r="T69" s="28">
+      <c r="T69" s="23">
         <v>0.65</v>
       </c>
-      <c r="U69" s="28">
+      <c r="U69" s="23">
         <v>3.05</v>
       </c>
       <c r="V69">
@@ -6926,23 +7048,23 @@
       <c r="W69">
         <v>25.92</v>
       </c>
-      <c r="X69" s="28">
+      <c r="X69" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y69" s="28">
+      <c r="Y69" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z69">
         <v>21.99</v>
       </c>
-      <c r="AA69" s="28">
+      <c r="AA69" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB69" s="28">
+      <c r="AB69" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40390</v>
       </c>
@@ -6958,77 +7080,77 @@
       <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="23">
         <v>1.05</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="23">
         <v>0.3</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="23">
         <v>0.34</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="23">
         <v>0.6</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="23">
         <v>1.2</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="23">
         <v>1.05</v>
       </c>
-      <c r="L70" s="28">
+      <c r="L70" s="23">
         <v>1.55</v>
       </c>
-      <c r="M70" s="28">
+      <c r="M70" s="23">
         <v>0.75</v>
       </c>
-      <c r="N70" s="28">
+      <c r="N70" s="23">
         <v>0.8</v>
       </c>
       <c r="O70">
         <v>6.77</v>
       </c>
-      <c r="P70" s="28">
+      <c r="P70" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q70" s="28">
+      <c r="Q70" s="23">
         <v>2.25</v>
       </c>
-      <c r="R70" s="28">
+      <c r="R70" s="23">
         <v>2.9</v>
       </c>
-      <c r="S70" s="28">
+      <c r="S70" s="23">
         <v>0.25</v>
       </c>
-      <c r="T70" s="28">
+      <c r="T70" s="23">
         <v>0.65</v>
       </c>
-      <c r="U70" s="28">
+      <c r="U70" s="23">
         <v>3.05</v>
       </c>
       <c r="V70">
         <v>19.71</v>
       </c>
-      <c r="W70" s="28">
+      <c r="W70" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X70" s="28">
+      <c r="X70" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y70" s="28">
+      <c r="Y70" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z70" s="28">
+      <c r="Z70" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA70" s="28">
+      <c r="AA70" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB70" s="28">
+      <c r="AB70" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>40395</v>
       </c>
@@ -7044,77 +7166,77 @@
       <c r="E71" t="s">
         <v>74</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="23">
         <v>1.05</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="23">
         <v>0.15</v>
       </c>
-      <c r="H71" s="28">
+      <c r="H71" s="23">
         <v>0.34</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="23">
         <v>0.6</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="23">
         <v>1.2</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K71" s="23">
         <v>1.05</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L71" s="23">
         <v>1.55</v>
       </c>
-      <c r="M71" s="28">
+      <c r="M71" s="23">
         <v>0.75</v>
       </c>
-      <c r="N71" s="28">
+      <c r="N71" s="23">
         <v>0.32</v>
       </c>
       <c r="O71">
         <v>33.17</v>
       </c>
-      <c r="P71" s="28">
+      <c r="P71" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q71" s="28">
+      <c r="Q71" s="23">
         <v>2.25</v>
       </c>
-      <c r="R71" s="28">
+      <c r="R71" s="23">
         <v>2.9</v>
       </c>
-      <c r="S71" s="28">
+      <c r="S71" s="23">
         <v>0.25</v>
       </c>
-      <c r="T71" s="28">
+      <c r="T71" s="23">
         <v>0.65</v>
       </c>
-      <c r="U71" s="28">
+      <c r="U71" s="23">
         <v>3.05</v>
       </c>
       <c r="V71">
         <v>18.350000000000001</v>
       </c>
-      <c r="W71" s="28">
+      <c r="W71" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X71" s="28">
+      <c r="X71" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y71" s="28">
+      <c r="Y71" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z71">
         <v>21.99</v>
       </c>
-      <c r="AA71" s="28">
+      <c r="AA71" s="23">
         <v>3.98</v>
       </c>
-      <c r="AB71" s="28">
+      <c r="AB71" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1">
+    <row r="72" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40479</v>
       </c>
@@ -7130,7 +7252,7 @@
       <c r="E72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="24">
         <v>4.72</v>
       </c>
       <c r="G72" s="2">
@@ -7139,43 +7261,43 @@
       <c r="H72" s="2">
         <v>2.75</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="24">
         <v>0.6</v>
       </c>
-      <c r="J72" s="29">
+      <c r="J72" s="24">
         <v>1.2</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="24">
         <v>0.72</v>
       </c>
-      <c r="L72" s="29">
+      <c r="L72" s="24">
         <v>1.55</v>
       </c>
-      <c r="M72" s="29">
+      <c r="M72" s="24">
         <v>0.75</v>
       </c>
-      <c r="N72" s="29">
+      <c r="N72" s="24">
         <v>1.1399999999999999</v>
       </c>
       <c r="O72" s="2">
         <v>33.96</v>
       </c>
-      <c r="P72" s="29">
+      <c r="P72" s="24">
         <v>3.2</v>
       </c>
-      <c r="Q72" s="29">
+      <c r="Q72" s="24">
         <v>2.25</v>
       </c>
-      <c r="R72" s="29">
+      <c r="R72" s="24">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S72" s="29">
+      <c r="S72" s="24">
         <v>0.25</v>
       </c>
-      <c r="T72" s="29">
+      <c r="T72" s="24">
         <v>0.65</v>
       </c>
-      <c r="U72" s="29">
+      <c r="U72" s="24">
         <v>3.05</v>
       </c>
       <c r="V72" s="2">
@@ -7184,10 +7306,10 @@
       <c r="W72" s="2">
         <v>9.35</v>
       </c>
-      <c r="X72" s="29">
+      <c r="X72" s="24">
         <v>0.8</v>
       </c>
-      <c r="Y72" s="29">
+      <c r="Y72" s="24">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z72" s="2">
@@ -7196,11 +7318,11 @@
       <c r="AA72" s="2">
         <v>9.92</v>
       </c>
-      <c r="AB72" s="29">
+      <c r="AB72" s="34">
         <v>6.8</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>40335</v>
       </c>
@@ -7216,77 +7338,77 @@
       <c r="E73" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="23">
         <v>0.36</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="23">
         <v>0.9</v>
       </c>
-      <c r="H73" s="28">
+      <c r="H73" s="23">
         <v>0.34</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="23">
         <v>0.6</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K73" s="28">
+      <c r="K73" s="23">
         <v>1.05</v>
       </c>
-      <c r="L73" s="28">
+      <c r="L73" s="23">
         <v>1.55</v>
       </c>
-      <c r="M73" s="28">
+      <c r="M73" s="23">
         <v>0.75</v>
       </c>
-      <c r="N73" s="28">
+      <c r="N73" s="23">
         <v>0.8</v>
       </c>
       <c r="O73">
         <v>15.45</v>
       </c>
-      <c r="P73" s="28">
+      <c r="P73" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q73" s="28">
+      <c r="Q73" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R73" s="28">
+      <c r="R73" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S73" s="28">
+      <c r="S73" s="23">
         <v>0.25</v>
       </c>
-      <c r="T73" s="28">
+      <c r="T73" s="23">
         <v>0.65</v>
       </c>
-      <c r="U73" s="28">
+      <c r="U73" s="23">
         <v>3.05</v>
       </c>
       <c r="V73">
         <v>22.05</v>
       </c>
-      <c r="W73" s="28">
+      <c r="W73" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X73" s="28">
+      <c r="X73" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y73" s="28">
+      <c r="Y73" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z73" s="28">
+      <c r="Z73" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA73" s="28">
+      <c r="AA73" s="23">
         <v>6</v>
       </c>
-      <c r="AB73" s="28">
+      <c r="AB73" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40440</v>
       </c>
@@ -7302,7 +7424,7 @@
       <c r="E74" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="23">
         <v>1.05</v>
       </c>
       <c r="G74">
@@ -7311,19 +7433,19 @@
       <c r="H74">
         <v>2.75</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="23">
         <v>0.6</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="23">
         <v>1.2</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="23">
         <v>0.72</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="23">
         <v>1.55</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="23">
         <v>0.75</v>
       </c>
       <c r="N74">
@@ -7332,47 +7454,47 @@
       <c r="O74">
         <v>118.63</v>
       </c>
-      <c r="P74" s="28">
+      <c r="P74" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q74" s="28">
+      <c r="Q74" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R74" s="28">
+      <c r="R74" s="23">
         <v>5.98</v>
       </c>
-      <c r="S74" s="28">
+      <c r="S74" s="23">
         <v>0.25</v>
       </c>
-      <c r="T74" s="28">
+      <c r="T74" s="23">
         <v>0.65</v>
       </c>
-      <c r="U74" s="28">
+      <c r="U74" s="23">
         <v>3.05</v>
       </c>
       <c r="V74">
         <v>26.68</v>
       </c>
-      <c r="W74" s="28">
+      <c r="W74" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X74" s="28">
+      <c r="X74" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y74" s="28">
+      <c r="Y74" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z74">
         <v>63.44</v>
       </c>
-      <c r="AA74" s="28">
+      <c r="AA74" s="23">
         <v>6</v>
       </c>
-      <c r="AB74" s="28">
+      <c r="AB74" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>40473</v>
       </c>
@@ -7388,28 +7510,28 @@
       <c r="E75" t="s">
         <v>102</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="23">
         <v>4.72</v>
       </c>
       <c r="G75">
         <v>3.43</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="23">
         <v>0.34</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="23">
         <v>0.02</v>
       </c>
       <c r="J75">
         <v>9.61</v>
       </c>
-      <c r="K75" s="28">
+      <c r="K75" s="23">
         <v>0.49</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="23">
         <v>1.76</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="23">
         <v>0.75</v>
       </c>
       <c r="N75">
@@ -7418,22 +7540,22 @@
       <c r="O75">
         <v>80.86</v>
       </c>
-      <c r="P75" s="28">
+      <c r="P75" s="23">
         <v>3.2</v>
       </c>
       <c r="Q75">
         <v>9.44</v>
       </c>
-      <c r="R75" s="28">
+      <c r="R75" s="23">
         <v>8.01</v>
       </c>
-      <c r="S75" s="28">
+      <c r="S75" s="23">
         <v>0.25</v>
       </c>
-      <c r="T75" s="28">
+      <c r="T75" s="23">
         <v>0.65</v>
       </c>
-      <c r="U75" s="28">
+      <c r="U75" s="23">
         <v>6.13</v>
       </c>
       <c r="V75">
@@ -7442,10 +7564,10 @@
       <c r="W75">
         <v>2.84</v>
       </c>
-      <c r="X75" s="28">
+      <c r="X75" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y75" s="28">
+      <c r="Y75" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z75">
@@ -7454,11 +7576,11 @@
       <c r="AA75">
         <v>15.66</v>
       </c>
-      <c r="AB75" s="28">
+      <c r="AB75" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>40478</v>
       </c>
@@ -7474,77 +7596,77 @@
       <c r="E76" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="28">
+      <c r="F76" s="23">
         <v>2.04</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="23">
         <v>0.22</v>
       </c>
-      <c r="H76" s="28">
+      <c r="H76" s="23">
         <v>0.8</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="23">
         <v>0.6</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="23">
         <v>1.2</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K76" s="23">
         <v>1.05</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L76" s="23">
         <v>0.72</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M76" s="23">
         <v>0.75</v>
       </c>
-      <c r="N76" s="28">
+      <c r="N76" s="23">
         <v>0.8</v>
       </c>
       <c r="O76">
         <v>31.79</v>
       </c>
-      <c r="P76" s="28">
+      <c r="P76" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q76" s="28">
+      <c r="Q76" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R76" s="28">
+      <c r="R76" s="23">
         <v>2.9</v>
       </c>
-      <c r="S76" s="28">
+      <c r="S76" s="23">
         <v>0.25</v>
       </c>
-      <c r="T76" s="28">
+      <c r="T76" s="23">
         <v>0.65</v>
       </c>
-      <c r="U76" s="28">
+      <c r="U76" s="23">
         <v>3.05</v>
       </c>
       <c r="V76">
         <v>18.16</v>
       </c>
-      <c r="W76" s="28">
+      <c r="W76" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X76" s="28">
+      <c r="X76" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y76" s="28">
+      <c r="Y76" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z76" s="28">
+      <c r="Z76" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA76" s="28">
+      <c r="AA76" s="23">
         <v>6</v>
       </c>
-      <c r="AB76" s="28">
+      <c r="AB76" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40228</v>
       </c>
@@ -7560,77 +7682,77 @@
       <c r="E77" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="23">
         <v>1.05</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="23">
         <v>0.9</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="23">
         <v>0.8</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="23">
         <v>0.6</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="23">
         <v>7.85</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K77" s="23">
         <v>1.05</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="23">
         <v>0.72</v>
       </c>
-      <c r="M77" s="28">
+      <c r="M77" s="23">
         <v>0.75</v>
       </c>
-      <c r="N77" s="28">
+      <c r="N77" s="23">
         <v>0.8</v>
       </c>
       <c r="O77">
         <v>7.1</v>
       </c>
-      <c r="P77" s="28">
+      <c r="P77" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q77" s="28">
+      <c r="Q77" s="23">
         <v>7.62</v>
       </c>
-      <c r="R77" s="28">
+      <c r="R77" s="23">
         <v>2.9</v>
       </c>
-      <c r="S77" s="28">
+      <c r="S77" s="23">
         <v>0.25</v>
       </c>
-      <c r="T77" s="28">
+      <c r="T77" s="23">
         <v>0.65</v>
       </c>
-      <c r="U77" s="28">
+      <c r="U77" s="23">
         <v>3.05</v>
       </c>
       <c r="V77">
         <v>3.19</v>
       </c>
-      <c r="W77" s="28">
+      <c r="W77" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X77" s="28">
+      <c r="X77" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y77" s="28">
+      <c r="Y77" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z77" s="28">
+      <c r="Z77" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA77" s="28">
+      <c r="AA77" s="23">
         <v>1.91</v>
       </c>
-      <c r="AB77" s="28">
+      <c r="AB77" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40295</v>
       </c>
@@ -7646,52 +7768,52 @@
       <c r="E78" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="23">
         <v>0.36</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="23">
         <v>0.9</v>
       </c>
       <c r="H78">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="23">
         <v>0.6</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="23">
         <v>6.07</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="23">
         <v>1.05</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="23">
         <v>3.67</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="23">
         <v>0.75</v>
       </c>
-      <c r="N78" s="28">
+      <c r="N78" s="23">
         <v>0.76</v>
       </c>
       <c r="O78">
         <v>2.63</v>
       </c>
-      <c r="P78" s="28">
+      <c r="P78" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q78" s="28">
+      <c r="Q78" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R78" s="28">
+      <c r="R78" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S78" s="28">
+      <c r="S78" s="23">
         <v>0.25</v>
       </c>
-      <c r="T78" s="28">
+      <c r="T78" s="23">
         <v>0.65</v>
       </c>
-      <c r="U78" s="28">
+      <c r="U78" s="23">
         <v>3.05</v>
       </c>
       <c r="V78">
@@ -7700,10 +7822,10 @@
       <c r="W78">
         <v>18.3</v>
       </c>
-      <c r="X78" s="28">
+      <c r="X78" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y78" s="28">
+      <c r="Y78" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z78">
@@ -7712,11 +7834,11 @@
       <c r="AA78">
         <v>11.85</v>
       </c>
-      <c r="AB78" s="28">
+      <c r="AB78" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39689</v>
       </c>
@@ -7732,77 +7854,77 @@
       <c r="E79" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="23">
         <v>2.04</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="23">
         <v>0.9</v>
       </c>
       <c r="H79">
         <v>2.75</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="23">
         <v>0.6</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K79" s="28">
+      <c r="K79" s="23">
         <v>1.05</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L79" s="23">
         <v>0.72</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="23">
         <v>0.75</v>
       </c>
-      <c r="N79" s="28">
+      <c r="N79" s="23">
         <v>0.8</v>
       </c>
-      <c r="O79" s="28">
+      <c r="O79" s="23">
         <v>2.46</v>
       </c>
-      <c r="P79" s="28">
+      <c r="P79" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q79" s="28">
+      <c r="Q79" s="23">
         <v>2.25</v>
       </c>
-      <c r="R79" s="28">
+      <c r="R79" s="23">
         <v>2.9</v>
       </c>
-      <c r="S79" s="28">
+      <c r="S79" s="23">
         <v>0.25</v>
       </c>
-      <c r="T79" s="28">
+      <c r="T79" s="23">
         <v>0.65</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="23">
         <v>3.05</v>
       </c>
       <c r="V79">
         <v>7.99</v>
       </c>
-      <c r="W79" s="28">
+      <c r="W79" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X79" s="28">
+      <c r="X79" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y79" s="28">
+      <c r="Y79" s="23">
         <v>0.33</v>
       </c>
       <c r="Z79">
         <v>21.99</v>
       </c>
-      <c r="AA79" s="28">
+      <c r="AA79" s="23">
         <v>7.97</v>
       </c>
-      <c r="AB79" s="28">
+      <c r="AB79" s="31">
         <v>6.8</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40482</v>
       </c>
@@ -7884,47 +8006,21 @@
       <c r="AA80">
         <v>35.93</v>
       </c>
-      <c r="AB80">
+      <c r="AB80" s="32">
         <v>187.87</v>
       </c>
     </row>
-    <row r="81" spans="5:28">
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:AB81">
-    <sortCondition ref="D2:D81"/>
-    <sortCondition ref="C2:C81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB80">
+    <sortCondition ref="D2:D80"/>
+    <sortCondition ref="C2:C80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -7932,27 +8028,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -7978,7 +8074,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!N2</f>
         <v>0.8</v>
@@ -8012,7 +8108,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!N3</f>
         <v>138.78</v>
@@ -8046,7 +8142,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!N4</f>
         <v>1.5</v>
@@ -8080,7 +8176,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!N5</f>
         <v>15.14</v>
@@ -8114,7 +8210,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!N6</f>
         <v>7.44</v>
@@ -8148,7 +8244,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!N7</f>
         <v>0.8</v>
@@ -8182,7 +8278,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!N8</f>
         <v>0.8</v>
@@ -8216,7 +8312,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!N9</f>
         <v>0.8</v>
@@ -8247,7 +8343,7 @@
         <v>87.18</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!N10</f>
         <v>14.09</v>
@@ -8269,7 +8365,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!N11</f>
         <v>9.2200000000000006</v>
@@ -8291,7 +8387,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!N12</f>
         <v>88.05</v>
@@ -8313,7 +8409,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!N13</f>
         <v>21.92</v>
@@ -8347,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8355,27 +8451,27 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8401,7 +8497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!O2</f>
         <v>6.77</v>
@@ -8435,7 +8531,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!O3</f>
         <v>4545.08</v>
@@ -8469,7 +8565,7 @@
         <v>118.63</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!O4</f>
         <v>38.58</v>
@@ -8503,7 +8599,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!O5</f>
         <v>323.49</v>
@@ -8537,7 +8633,7 @@
         <v>31.79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!O6</f>
         <v>65.959999999999994</v>
@@ -8571,7 +8667,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!O7</f>
         <v>0.55000000000000004</v>
@@ -8605,7 +8701,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!O8</f>
         <v>6.28</v>
@@ -8639,7 +8735,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!O9</f>
         <v>15.9</v>
@@ -8670,7 +8766,7 @@
         <v>2267.6999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!O10</f>
         <v>131.09</v>
@@ -8692,7 +8788,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!O11</f>
         <v>371.25</v>
@@ -8714,7 +8810,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!O12</f>
         <v>3171.42</v>
@@ -8736,7 +8832,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!O13</f>
         <v>685.31</v>
@@ -8770,7 +8866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8778,27 +8874,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8824,7 +8920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!P2</f>
         <v>3.2</v>
@@ -8858,7 +8954,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!P3</f>
         <v>175.01</v>
@@ -8892,7 +8988,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!P4</f>
         <v>20.52</v>
@@ -8926,7 +9022,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!P5</f>
         <v>62.79</v>
@@ -8960,7 +9056,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!P6</f>
         <v>29.16</v>
@@ -8994,7 +9090,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!P7</f>
         <v>3.2</v>
@@ -9028,7 +9124,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!P8</f>
         <v>3.2</v>
@@ -9062,7 +9158,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!P9</f>
         <v>3.2</v>
@@ -9093,7 +9189,7 @@
         <v>134.05000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!P10</f>
         <v>48.32</v>
@@ -9115,7 +9211,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!P11</f>
         <v>46.98</v>
@@ -9137,7 +9233,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!P12</f>
         <v>269.33</v>
@@ -9159,7 +9255,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!P13</f>
         <v>61.49</v>
@@ -9193,7 +9289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9201,27 +9297,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9247,7 +9343,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!Q2</f>
         <v>7.62</v>
@@ -9281,7 +9377,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Q3</f>
         <v>48.87</v>
@@ -9315,7 +9411,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Q4</f>
         <v>18.66</v>
@@ -9349,7 +9445,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Q5</f>
         <v>16.809999999999999</v>
@@ -9383,7 +9479,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Q6</f>
         <v>37.46</v>
@@ -9417,7 +9513,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Q7</f>
         <v>2.25</v>
@@ -9451,7 +9547,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Q8</f>
         <v>14.03</v>
@@ -9485,7 +9581,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Q9</f>
         <v>4.91</v>
@@ -9516,7 +9612,7 @@
         <v>39.35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Q10</f>
         <v>39.35</v>
@@ -9538,7 +9634,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Q11</f>
         <v>15.88</v>
@@ -9560,7 +9656,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Q12</f>
         <v>43.16</v>
@@ -9582,7 +9678,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Q13</f>
         <v>20.53</v>
@@ -9616,7 +9712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9624,27 +9720,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9670,7 +9766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!R2</f>
         <v>5.98</v>
@@ -9704,7 +9800,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!R3</f>
         <v>27.25</v>
@@ -9738,7 +9834,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!R4</f>
         <v>17.61</v>
@@ -9772,7 +9868,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!R5</f>
         <v>22.94</v>
@@ -9806,7 +9902,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!R6</f>
         <v>25.19</v>
@@ -9840,7 +9936,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!R7</f>
         <v>2.9</v>
@@ -9874,7 +9970,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!R8</f>
         <v>13.21</v>
@@ -9908,7 +10004,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!R9</f>
         <v>5.98</v>
@@ -9939,7 +10035,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!R10</f>
         <v>25.19</v>
@@ -9961,7 +10057,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!R11</f>
         <v>10.94</v>
@@ -9983,7 +10079,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!R12</f>
         <v>29.18</v>
@@ -10005,7 +10101,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!R13</f>
         <v>20.45</v>
@@ -10039,7 +10135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10047,27 +10143,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10093,7 +10189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!S2</f>
         <v>0.25</v>
@@ -10127,7 +10223,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!S3</f>
         <v>8.75</v>
@@ -10161,7 +10257,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!S4</f>
         <v>2.89</v>
@@ -10195,7 +10291,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!S5</f>
         <v>2.27</v>
@@ -10229,7 +10325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!S6</f>
         <v>8.58</v>
@@ -10263,7 +10359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!S7</f>
         <v>0.25</v>
@@ -10297,7 +10393,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!S8</f>
         <v>1.41</v>
@@ -10331,7 +10427,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!S9</f>
         <v>0.25</v>
@@ -10362,7 +10458,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!S10</f>
         <v>9.44</v>
@@ -10384,7 +10480,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!S11</f>
         <v>0.44</v>
@@ -10406,7 +10502,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!S12</f>
         <v>11.31</v>
@@ -10428,7 +10524,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!S13</f>
         <v>4.25</v>
@@ -10462,7 +10558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10470,27 +10566,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10516,7 +10612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!T2</f>
         <v>0.65</v>
@@ -10550,7 +10646,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!T3</f>
         <v>5.79</v>
@@ -10584,7 +10680,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!T4</f>
         <v>1.6</v>
@@ -10618,7 +10714,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!T5</f>
         <v>2.54</v>
@@ -10652,7 +10748,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!T6</f>
         <v>6.77</v>
@@ -10686,7 +10782,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!T7</f>
         <v>0.65</v>
@@ -10720,7 +10816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!T8</f>
         <v>1.07</v>
@@ -10754,7 +10850,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!T9</f>
         <v>0.65</v>
@@ -10785,7 +10881,7 @@
         <v>14.17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!T10</f>
         <v>5.94</v>
@@ -10807,7 +10903,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!T11</f>
         <v>1.78</v>
@@ -10829,7 +10925,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!T12</f>
         <v>9.1999999999999993</v>
@@ -10851,7 +10947,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!T13</f>
         <v>5.33</v>
@@ -10885,7 +10981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10893,27 +10989,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10939,7 +11035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!U2</f>
         <v>3.05</v>
@@ -10973,7 +11069,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!U3</f>
         <v>17.8</v>
@@ -11007,7 +11103,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!U4</f>
         <v>3.05</v>
@@ -11041,7 +11137,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!U5</f>
         <v>2.34</v>
@@ -11075,7 +11171,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!U6</f>
         <v>4.16</v>
@@ -11109,7 +11205,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!U7</f>
         <v>3.05</v>
@@ -11143,7 +11239,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!U8</f>
         <v>3.05</v>
@@ -11177,7 +11273,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!U9</f>
         <v>3.05</v>
@@ -11208,7 +11304,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!U10</f>
         <v>8.73</v>
@@ -11230,7 +11326,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!U11</f>
         <v>3.05</v>
@@ -11252,7 +11348,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!U12</f>
         <v>15.22</v>
@@ -11274,7 +11370,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!U13</f>
         <v>1.5</v>
@@ -11308,7 +11404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11316,27 +11412,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11362,7 +11458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!V2</f>
         <v>9.68</v>
@@ -11396,7 +11492,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!V3</f>
         <v>666.7</v>
@@ -11430,7 +11526,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!V4</f>
         <v>20.68</v>
@@ -11464,7 +11560,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!V5</f>
         <v>233.04</v>
@@ -11498,7 +11594,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!V6</f>
         <v>69.53</v>
@@ -11532,7 +11628,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!V7</f>
         <v>1.55</v>
@@ -11566,7 +11662,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!V8</f>
         <v>13.96</v>
@@ -11600,7 +11696,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!V9</f>
         <v>23.21</v>
@@ -11631,7 +11727,7 @@
         <v>473.85</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!V10</f>
         <v>58.77</v>
@@ -11653,7 +11749,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!V11</f>
         <v>89.34</v>
@@ -11675,7 +11771,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!V12</f>
         <v>914.86</v>
@@ -11697,7 +11793,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!V13</f>
         <v>174.54</v>
@@ -11731,7 +11827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11739,27 +11835,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11785,7 +11881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!W2</f>
         <v>2.84</v>
@@ -11819,7 +11915,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!W3</f>
         <v>198.36</v>
@@ -11853,7 +11949,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!W4</f>
         <v>16.8</v>
@@ -11887,7 +11983,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!W5</f>
         <v>22.34</v>
@@ -11921,7 +12017,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!W6</f>
         <v>50.72</v>
@@ -11955,7 +12051,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!W7</f>
         <v>2.4500000000000002</v>
@@ -11989,7 +12085,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!W8</f>
         <v>2.4500000000000002</v>
@@ -12023,7 +12119,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!W9</f>
         <v>2.4500000000000002</v>
@@ -12054,7 +12150,7 @@
         <v>113.91</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!W10</f>
         <v>46.41</v>
@@ -12076,7 +12172,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!W11</f>
         <v>16.8</v>
@@ -12098,7 +12194,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!W12</f>
         <v>128.80000000000001</v>
@@ -12120,7 +12216,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!W13</f>
         <v>35.880000000000003</v>
@@ -12154,7 +12250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12162,27 +12258,27 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -12208,7 +12304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!F2</f>
         <v>9.2899999999999991</v>
@@ -12242,7 +12338,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!F3</f>
         <v>41.83</v>
@@ -12276,7 +12372,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!F4</f>
         <v>15.38</v>
@@ -12310,7 +12406,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!F5</f>
         <v>31.36</v>
@@ -12344,7 +12440,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!F6</f>
         <v>24.54</v>
@@ -12378,7 +12474,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!F7</f>
         <v>1.05</v>
@@ -12412,7 +12508,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!F8</f>
         <v>17.29</v>
@@ -12446,7 +12542,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!F9</f>
         <v>3.43</v>
@@ -12477,7 +12573,7 @@
         <v>405.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!F10</f>
         <v>35.47</v>
@@ -12499,7 +12595,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!F11</f>
         <v>16.34</v>
@@ -12521,7 +12617,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!F12</f>
         <v>52.52</v>
@@ -12543,7 +12639,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!F13</f>
         <v>59.15</v>
@@ -12577,7 +12673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12585,27 +12681,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -12631,7 +12727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!X2</f>
         <v>1.04</v>
@@ -12665,7 +12761,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!X3</f>
         <v>19.52</v>
@@ -12699,7 +12795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!X4</f>
         <v>3.01</v>
@@ -12733,7 +12829,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!X5</f>
         <v>5.09</v>
@@ -12767,7 +12863,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!X6</f>
         <v>7.82</v>
@@ -12801,7 +12897,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!X7</f>
         <v>0.8</v>
@@ -12835,7 +12931,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!X8</f>
         <v>1.04</v>
@@ -12869,7 +12965,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!X9</f>
         <v>0.8</v>
@@ -12900,7 +12996,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!X10</f>
         <v>9.91</v>
@@ -12922,7 +13018,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!X11</f>
         <v>5.39</v>
@@ -12944,7 +13040,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!X12</f>
         <v>32.909999999999997</v>
@@ -12966,7 +13062,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!X13</f>
         <v>7.31</v>
@@ -13000,7 +13096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13008,27 +13104,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13054,7 +13150,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Y2</f>
         <v>1.1299999999999999</v>
@@ -13088,7 +13184,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Y3</f>
         <v>11.75</v>
@@ -13122,7 +13218,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Y4</f>
         <v>3.81</v>
@@ -13156,7 +13252,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Y5</f>
         <v>3.39</v>
@@ -13190,7 +13286,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Y6</f>
         <v>11.04</v>
@@ -13224,7 +13320,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Y7</f>
         <v>0.55000000000000004</v>
@@ -13258,7 +13354,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Y8</f>
         <v>2.52</v>
@@ -13292,7 +13388,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Y9</f>
         <v>0.55000000000000004</v>
@@ -13323,7 +13419,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Y10</f>
         <v>9.6</v>
@@ -13345,7 +13441,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Y11</f>
         <v>2.96</v>
@@ -13367,7 +13463,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Y12</f>
         <v>13.86</v>
@@ -13389,7 +13485,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Y13</f>
         <v>4.22</v>
@@ -13423,7 +13519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -13431,27 +13527,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13477,7 +13573,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Z2</f>
         <v>63.44</v>
@@ -13511,7 +13607,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Z3</f>
         <v>393.8</v>
@@ -13545,7 +13641,7 @@
         <v>63.44</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Z4</f>
         <v>122.42</v>
@@ -13579,7 +13675,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Z5</f>
         <v>151.44</v>
@@ -13613,7 +13709,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Z6</f>
         <v>246.88</v>
@@ -13647,7 +13743,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Z7</f>
         <v>0.8</v>
@@ -13681,7 +13777,7 @@
         <v>51.39</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Z8</f>
         <v>99.75</v>
@@ -13715,7 +13811,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Z9</f>
         <v>37.96</v>
@@ -13746,7 +13842,7 @@
         <v>524.41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Z10</f>
         <v>268.97000000000003</v>
@@ -13768,7 +13864,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Z11</f>
         <v>94.95</v>
@@ -13790,7 +13886,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Z12</f>
         <v>347.91</v>
@@ -13812,7 +13908,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Z13</f>
         <v>155.38</v>
@@ -13834,7 +13930,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>9</v>
       </c>
@@ -13851,7 +13947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13859,27 +13955,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13905,7 +14001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AA2</f>
         <v>9.92</v>
@@ -13939,7 +14035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AA3</f>
         <v>59.08</v>
@@ -13973,7 +14069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AA4</f>
         <v>21.28</v>
@@ -14007,7 +14103,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AA5</f>
         <v>23.14</v>
@@ -14041,7 +14137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AA6</f>
         <v>30.48</v>
@@ -14075,7 +14171,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AA7</f>
         <v>2.96</v>
@@ -14109,7 +14205,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AA8</f>
         <v>14.71</v>
@@ -14143,7 +14239,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AA9</f>
         <v>10.89</v>
@@ -14174,7 +14270,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AA10</f>
         <v>44.02</v>
@@ -14196,7 +14292,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AA11</f>
         <v>17.54</v>
@@ -14218,7 +14314,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AA12</f>
         <v>60.84</v>
@@ -14240,7 +14336,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AA13</f>
         <v>26.82</v>
@@ -14274,7 +14370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -14282,27 +14378,27 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -14328,7 +14424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AB2</f>
         <v>6.8</v>
@@ -14362,7 +14458,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AB3</f>
         <v>153.04</v>
@@ -14396,7 +14492,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AB4</f>
         <v>6.8</v>
@@ -14430,7 +14526,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AB5</f>
         <v>50.88</v>
@@ -14464,7 +14560,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AB6</f>
         <v>44.67</v>
@@ -14498,7 +14594,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AB7</f>
         <v>6.8</v>
@@ -14532,7 +14628,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AB8</f>
         <v>6.8</v>
@@ -14566,7 +14662,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AB9</f>
         <v>6.8</v>
@@ -14580,9 +14676,9 @@
         <v>6.8</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="9">
         <f>Sheet1!AB48</f>
-        <v>*22.71</v>
+        <v>22.71</v>
       </c>
       <c r="F10" s="10">
         <f>Sheet1!AB60</f>
@@ -14597,7 +14693,7 @@
         <v>187.87</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AB10</f>
         <v>62.38</v>
@@ -14619,7 +14715,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AB11</f>
         <v>44.67</v>
@@ -14641,7 +14737,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AB12</f>
         <v>179.45</v>
@@ -14663,7 +14759,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AB13</f>
         <v>67.77</v>
@@ -14697,7 +14793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C80"/>
   <sheetViews>
@@ -14705,14 +14801,14 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -14723,7 +14819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -14734,7 +14830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -14745,7 +14841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -14756,7 +14852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -14767,7 +14863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -14778,7 +14874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -14789,7 +14885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -14800,7 +14896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -14811,7 +14907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -14822,7 +14918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -14833,7 +14929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -14844,7 +14940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -14855,7 +14951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -14866,7 +14962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -14877,7 +14973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -14888,7 +14984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -14899,7 +14995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -14910,7 +15006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -14921,7 +15017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -14932,7 +15028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>110</v>
       </c>
@@ -14943,7 +15039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -14954,7 +15050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -14965,7 +15061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -14976,7 +15072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -14987,7 +15083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -14998,7 +15094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -15009,7 +15105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -15020,7 +15116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -15031,7 +15127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -15042,7 +15138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -15053,7 +15149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -15064,7 +15160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -15075,7 +15171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -15086,7 +15182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -15097,7 +15193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -15108,7 +15204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -15119,7 +15215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -15130,7 +15226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -15141,7 +15237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -15152,7 +15248,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -15163,7 +15259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -15174,7 +15270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -15185,7 +15281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -15196,7 +15292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -15207,7 +15303,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -15218,7 +15314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -15229,7 +15325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -15240,7 +15336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -15251,7 +15347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -15262,7 +15358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -15273,7 +15369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -15284,7 +15380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -15295,7 +15391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -15306,7 +15402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -15317,7 +15413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -15328,7 +15424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -15339,7 +15435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -15350,7 +15446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -15361,7 +15457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
@@ -15372,7 +15468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -15383,7 +15479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -15394,7 +15490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -15405,7 +15501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -15416,7 +15512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -15427,7 +15523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -15438,7 +15534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -15449,7 +15545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -15460,7 +15556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -15471,7 +15567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -15482,7 +15578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -15493,7 +15589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+    <row r="72" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>111</v>
       </c>
@@ -15504,7 +15600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -15515,7 +15611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -15526,7 +15622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -15537,7 +15633,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -15548,7 +15644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -15559,7 +15655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -15570,7 +15666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -15581,7 +15677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -15593,7 +15689,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
     <sortCondition ref="C2:C80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15601,7 +15697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -15609,27 +15705,27 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -15655,7 +15751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!G2</f>
         <v>0.9</v>
@@ -15689,7 +15785,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!G3</f>
         <v>71.88</v>
@@ -15723,7 +15819,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!G4</f>
         <v>2.06</v>
@@ -15757,7 +15853,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!G5</f>
         <v>66</v>
@@ -15791,7 +15887,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!G6</f>
         <v>3.83</v>
@@ -15825,7 +15921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!G7</f>
         <v>0.9</v>
@@ -15859,7 +15955,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!G8</f>
         <v>0.9</v>
@@ -15893,7 +15989,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!G9</f>
         <v>1.76</v>
@@ -15924,7 +16020,7 @@
         <v>74.59</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!G10</f>
         <v>4.41</v>
@@ -15946,7 +16042,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!G11</f>
         <v>15.02</v>
@@ -15968,7 +16064,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!G12</f>
         <v>70.73</v>
@@ -15990,7 +16086,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!G13</f>
         <v>65.11</v>
@@ -16024,7 +16120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16032,27 +16128,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -16078,7 +16174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!H2</f>
         <v>11.78</v>
@@ -16112,7 +16208,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!H3</f>
         <v>151.03</v>
@@ -16146,7 +16242,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!H4</f>
         <v>15.07</v>
@@ -16180,7 +16276,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!H5</f>
         <v>29.03</v>
@@ -16214,7 +16310,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!H6</f>
         <v>43.75</v>
@@ -16248,7 +16344,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!H7</f>
         <v>0.8</v>
@@ -16282,7 +16378,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!H8</f>
         <v>11.78</v>
@@ -16316,7 +16412,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!H9</f>
         <v>2.75</v>
@@ -16347,7 +16443,7 @@
         <v>149.05000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!H10</f>
         <v>50</v>
@@ -16369,7 +16465,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!H11</f>
         <v>13.97</v>
@@ -16391,7 +16487,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!H12</f>
         <v>383.65</v>
@@ -16413,7 +16509,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!H13</f>
         <v>41.67</v>
@@ -16447,7 +16543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16455,27 +16551,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -16501,7 +16597,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!I2</f>
         <v>0.77</v>
@@ -16535,7 +16631,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!I3</f>
         <v>14.31</v>
@@ -16569,7 +16665,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!I4</f>
         <v>1.78</v>
@@ -16603,7 +16699,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!I5</f>
         <v>2.21</v>
@@ -16637,7 +16733,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!I6</f>
         <v>3.89</v>
@@ -16671,7 +16767,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!I7</f>
         <v>0.6</v>
@@ -16705,7 +16801,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!I8</f>
         <v>0.92</v>
@@ -16739,7 +16835,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!I9</f>
         <v>2.63</v>
@@ -16770,7 +16866,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!I10</f>
         <v>8.67</v>
@@ -16792,7 +16888,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!I11</f>
         <v>3.75</v>
@@ -16814,7 +16910,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!I12</f>
         <v>14.44</v>
@@ -16836,7 +16932,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!I13</f>
         <v>4.8499999999999996</v>
@@ -16870,7 +16966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -16878,27 +16974,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -16924,7 +17020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!J2</f>
         <v>16.559999999999999</v>
@@ -16958,7 +17054,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!J3</f>
         <v>84.02</v>
@@ -16992,7 +17088,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!J4</f>
         <v>26.83</v>
@@ -17026,7 +17122,7 @@
         <v>9.61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!J5</f>
         <v>30.23</v>
@@ -17060,7 +17156,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!J6</f>
         <v>80.67</v>
@@ -17094,7 +17190,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!J7</f>
         <v>1.2</v>
@@ -17128,7 +17224,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!J8</f>
         <v>16.559999999999999</v>
@@ -17162,7 +17258,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!J9</f>
         <v>2.46</v>
@@ -17193,7 +17289,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!J10</f>
         <v>84.02</v>
@@ -17215,7 +17311,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!J11</f>
         <v>20</v>
@@ -17237,7 +17333,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!J12</f>
         <v>77.319999999999993</v>
@@ -17259,7 +17355,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!J13</f>
         <v>37</v>
@@ -17293,7 +17389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -17301,27 +17397,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -17347,7 +17443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!K2</f>
         <v>1.05</v>
@@ -17381,7 +17477,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!K3</f>
         <v>4.16</v>
@@ -17415,7 +17511,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!K4</f>
         <v>0.72</v>
@@ -17449,7 +17545,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!K5</f>
         <v>4.16</v>
@@ -17483,7 +17579,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!K6</f>
         <v>0.94</v>
@@ -17517,7 +17613,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!K7</f>
         <v>1.05</v>
@@ -17551,7 +17647,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!K8</f>
         <v>1.05</v>
@@ -17585,7 +17681,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!K9</f>
         <v>1.05</v>
@@ -17616,7 +17712,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!K10</f>
         <v>0.49</v>
@@ -17638,7 +17734,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!K11</f>
         <v>3</v>
@@ -17660,7 +17756,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!K12</f>
         <v>5.84</v>
@@ -17682,7 +17778,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!K13</f>
         <v>6.57</v>
@@ -17716,35 +17812,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -17770,7 +17866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!L2</f>
         <v>4.59</v>
@@ -17804,7 +17900,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!L3</f>
         <v>25.65</v>
@@ -17838,7 +17934,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!L4</f>
         <v>14.72</v>
@@ -17872,7 +17968,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!L5</f>
         <v>11.46</v>
@@ -17906,7 +18002,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!L6</f>
         <v>33.159999999999997</v>
@@ -17940,7 +18036,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!L7</f>
         <v>1.55</v>
@@ -17974,7 +18070,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!L8</f>
         <v>6.37</v>
@@ -18008,7 +18104,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!L9</f>
         <v>1.55</v>
@@ -18039,7 +18135,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!L10</f>
         <v>31.67</v>
@@ -18061,7 +18157,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!L11</f>
         <v>17.899999999999999</v>
@@ -18083,7 +18179,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!L12</f>
         <v>30.18</v>
@@ -18105,7 +18201,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!L13</f>
         <v>11.46</v>
@@ -18139,7 +18235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -18147,27 +18243,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -18193,7 +18289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!M2</f>
         <v>0.78</v>
@@ -18227,7 +18323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!M3</f>
         <v>11.54</v>
@@ -18261,7 +18357,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!M4</f>
         <v>3.54</v>
@@ -18295,7 +18391,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!M5</f>
         <v>3.04</v>
@@ -18329,7 +18425,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!M6</f>
         <v>8.1199999999999992</v>
@@ -18363,7 +18459,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!M7</f>
         <v>0.75</v>
@@ -18397,7 +18493,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!M8</f>
         <v>1.7</v>
@@ -18431,7 +18527,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!M9</f>
         <v>0.75</v>
@@ -18462,7 +18558,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!M10</f>
         <v>6.34</v>
@@ -18484,7 +18580,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!M11</f>
         <v>1.41</v>
@@ -18506,7 +18602,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!M12</f>
         <v>5.89</v>
@@ -18528,7 +18624,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!M13</f>
         <v>3.04</v>
